--- a/Project_python/out/results4.xlsx
+++ b/Project_python/out/results4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>fundamental advantage limitation discussed anns pso study summarized modeling removal process anns pso predicting performance removal process compared different anns development tool described optimization removal process</t>
+          <t>improved understanding geographical variation inequity health status wealth access resource country increasingly recognized central meeting development goal development health indicator assessed national subnational scale conceal important inequity rural poor represented ability target limited resource fundamental especially international context funding health development come pressure recently prompted exploration potential spatial interpolation method based geolocated cluster national household survey resolution mapping feature population structure vaccination coverage access sanitation remains unclear predictable different factor different setting variable demographic group test accuracy spatial interpolation method producing gender disaggregated resolution map rate literacy stunting modern contraceptive method combination geolocated demographic health survey cluster geospatial covariates bayesian geostatistical machine learning modelling method tested low income country varying gridded environmental socio economic covariate datasets build spatial resolution map uncertainty estimate result potential approach producing resolution map gender disaggregated socio economic indicator explained variance cross validation female literacy nigeria kenya range variable substantial variation country variable seen variable showing poor mapping accuracy range explained variance geostatistical machine learning approach analysis offer robust basis construction timely map level support geographically stratified decision making monitoring progress development goal great variability result country variable highlight challenge applying interpolation method universally multiple country importance validation quantifying uncertainty undertaken</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.00872425904688798]</t>
+          <t>[0.03464811973839797]</t>
         </is>
       </c>
       <c r="F67" t="b">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>open access article term creative common attribution license permit distribution reproduction provided original work properly cited</t>
+          <t>compactness landscape connectivity essential property effective functioning conservation reserve article introduce linear integer programming model determine optimal configuration conservation reserve property connectivity defined structural physical connectivity functional connectivity model developed address property apply model identify optimal conservation management area protection gopher tortoise military installation benning georgia serf safe refuge risk specie recent expansion military mission installation increase pressure scarce habitat area requires moving existent population area suitably chosen new conservation management area boundary installation model suitable spatially coherent management area outside heavily training area</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.01531007748472455]</t>
+          <t>[0.06671547923065352]</t>
         </is>
       </c>
       <c r="F68" t="b">
@@ -2548,12 +2548,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>improved understanding geographical variation inequity health status wealth access resource country increasingly recognized central meeting development goal development health indicator assessed national subnational scale conceal important inequity rural poor represented ability target limited resource fundamental especially international context funding health development come pressure recently prompted exploration potential spatial interpolation method based geolocated cluster national household survey resolution mapping feature population structure vaccination coverage access sanitation remains unclear predictable different factor different setting variable demographic group test accuracy spatial interpolation method producing gender disaggregated resolution map rate literacy stunting modern contraceptive method combination geolocated demographic health survey cluster geospatial covariates bayesian geostatistical machine learning modelling method tested low income country varying gridded environmental socio economic covariate datasets build spatial resolution map uncertainty estimate result potential approach producing resolution map gender disaggregated socio economic indicator explained variance cross validation female literacy nigeria kenya range variable substantial variation country variable seen variable showing poor mapping accuracy range explained variance geostatistical machine learning approach analysis offer robust basis construction timely map level support geographically stratified decision making monitoring progress development goal great variability result country variable highlight challenge applying interpolation method universally multiple country importance validation quantifying uncertainty undertaken</t>
+          <t>negotiation active involvement participation water manager expert stakeholder representative general public requires decision support tool environmental decision support eds build transparency flexibility order reach sound action plan management instrument possible eds active involvement stakeholder application bayesian network bns paper example study danish farmer hydrologist disputed degree pesticide application affected quality deep groundwater instead selecting opinion decision include bns adopting approach possible view result point view accepting reality situation mired insoluble conflict way laying foundation future compromise paper explores bns tool acting dealing management groundwater protection bns allow stakeholder divergent value belief surfaced negotiated participatory process area conventional physically based groundwater model insufficient lack physical understanding flexibility lack integration capability way agency able address institutional arrangement influencing groundwater protection complexity</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2563,14 +2563,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.03464811973839797]</t>
+          <t>[0.040786811805082875]</t>
         </is>
       </c>
       <c r="F69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>compactness landscape connectivity essential property effective functioning conservation reserve article introduce linear integer programming model determine optimal configuration conservation reserve property connectivity defined structural physical connectivity functional connectivity model developed address property apply model identify optimal conservation management area protection gopher tortoise military installation benning georgia serf safe refuge risk specie recent expansion military mission installation increase pressure scarce habitat area requires moving existent population area suitably chosen new conservation management area boundary installation model suitable spatially coherent management area outside heavily training area</t>
+          <t>produced artificial intelligence ecosystem service aries platform es supply defined carbon storage flood regulation demand specified recreation water iii joint spatial prioritisation biodiversity es employing marxan zone laying spatial representation multiple management zone given transboundary setting danube river run comparative analysis including country level purchasing power parity ppp adjusted gross domestic product gdp country percent cover area potential cost factor illustrating scheme balancing establishing specific zone country demonstrate emphasizing biodiversity es target ebm model coupling framework cost effectively test spatially explicit management option multi national study discus possible limitation future development requirement effectively managing balance biodiversity es supply demand freshwater ecosystem</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.06671547923065352]</t>
+          <t>[0.06158680748401092]</t>
         </is>
       </c>
       <c r="F70" t="b">
@@ -2610,29 +2610,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[15, 13]</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>negotiation active involvement participation water manager expert stakeholder representative general public requires decision support tool environmental decision support eds build transparency flexibility order reach sound action plan management instrument possible eds active involvement stakeholder application bayesian network bns paper example study danish farmer hydrologist disputed degree pesticide application affected quality deep groundwater instead selecting opinion decision include bns adopting approach possible view result point view accepting reality situation mired insoluble conflict way laying foundation future compromise paper explores bns tool acting dealing management groundwater protection bns allow stakeholder divergent value belief surfaced negotiated participatory process area conventional physically based groundwater model insufficient lack physical understanding flexibility lack integration capability way agency able address institutional arrangement influencing groundwater protection complexity</t>
+          <t>deciding implement conservation action order meet conservation target efficiently important component systematic conservation planning mathematical optimisation quantitative transparent framework solving problem despite advantage exact method integer linear programming ilp conservation planning problem date solved heuristic approach simulated annealing explain implement common conservation planning problem marxan marxan zone ilp framework formulation extended account spatial dependency planning unit arising environmental flow river simulated datasets demonstrate ilp outperforms respect solution quality close optimality processing time range problem size modestly sized quadratic problem spatial unit specie example processing time approximately required achieve solution optimality ilp achieved solution optimality largest quadratic problem evaluated processing time exceeding required achieve solution optimality ilp achieved solution optimality approximately hour heuristic conceptually simple applied large linear objective function unlike ilp produce solution unknown quality discus ilp approach facilitate quantification trade curve sensitivity analysis solving linear quadratic conservation planning problem recommend ilp heuristic approach possible</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[6, 14]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.040786811805082875]</t>
+          <t>[0.03306372605632121, 0.019345528864378018]</t>
         </is>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>produced artificial intelligence ecosystem service aries platform es supply defined carbon storage flood regulation demand specified recreation water iii joint spatial prioritisation biodiversity es employing marxan zone laying spatial representation multiple management zone given transboundary setting danube river run comparative analysis including country level purchasing power parity ppp adjusted gross domestic product gdp country percent cover area potential cost factor illustrating scheme balancing establishing specific zone country demonstrate emphasizing biodiversity es target ebm model coupling framework cost effectively test spatially explicit management option multi national study discus possible limitation future development requirement effectively managing balance biodiversity es supply demand freshwater ecosystem</t>
+          <t>emerged metaheuristic optimization technique ant colony optimization aco received considerable attention water resource environmental planning management decade different version aco proved flexible powerful solving number spatially temporally complex water resource problem discrete continuous domain single multiple objective reviewing large number peer reviewed journal paper valuable conference paper intend touch characteristic ant algorithm critically review state art application water resource environmental management problem discrete continuous domain paper seek promote opportunity advantage disadvantage algorithm applied different area water resource problem research practice intends identify present major seminal contribution ant algorithm finding organized area reservoir operation surface water management water distribution urban drainage sewer groundwater management environmental watershed management current trend challenge aco algorithm discussed called attempt carry convergence analysis active area</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2656,14 +2656,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.06158680748401092]</t>
+          <t>[0.16486011172498352]</t>
         </is>
       </c>
       <c r="F72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2672,22 +2672,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[15, 13]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>deciding implement conservation action order meet conservation target efficiently important component systematic conservation planning mathematical optimisation quantitative transparent framework solving problem despite advantage exact method integer linear programming ilp conservation planning problem date solved heuristic approach simulated annealing explain implement common conservation planning problem marxan marxan zone ilp framework formulation extended account spatial dependency planning unit arising environmental flow river simulated datasets demonstrate ilp outperforms respect solution quality close optimality processing time range problem size modestly sized quadratic problem spatial unit specie example processing time approximately required achieve solution optimality ilp achieved solution optimality largest quadratic problem evaluated processing time exceeding required achieve solution optimality ilp achieved solution optimality approximately hour heuristic conceptually simple applied large linear objective function unlike ilp produce solution unknown quality discus ilp approach facilitate quantification trade curve sensitivity analysis solving linear quadratic conservation planning problem recommend ilp heuristic approach possible</t>
+          <t>increasing incorporation artificial intelligence automated decision making procedure highlight importance decision theory automated need decision procedure explainable involved traditional realist account explanation explanation relation hold hold eternally explanans explanandum adequate account notion explanation required artificial decision procedure offer alternative account explanation context automated decision making explanation epistemic phenomenon dependent context account explanation better account way talk explanation derived concept explanatory power allows differentiate reason cause hand need epistemic aspect explanation aspect theoretical backdrop review existing approach explanation artificial intelligence machine learning suggest desideratum truly explainable decision fulfill good constructing post hoc decision especially clearly exclusively intuitive spontaneous unconscious decision generally count adequate explanation</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.03306372605632121, 0.019345528864378018]</t>
+          <t>[0.020182319522830502]</t>
         </is>
       </c>
       <c r="F73" t="b">
@@ -2703,29 +2703,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>emerged metaheuristic optimization technique ant colony optimization aco received considerable attention water resource environmental planning management decade different version aco proved flexible powerful solving number spatially temporally complex water resource problem discrete continuous domain single multiple objective reviewing large number peer reviewed journal paper valuable conference paper intend touch characteristic ant algorithm critically review state art application water resource environmental management problem discrete continuous domain paper seek promote opportunity advantage disadvantage algorithm applied different area water resource problem research practice intends identify present major seminal contribution ant algorithm finding organized area reservoir operation surface water management water distribution urban drainage sewer groundwater management environmental watershed management current trend challenge aco algorithm discussed called attempt carry convergence analysis active area</t>
+          <t>live paradox artificial intelligence match surpass human level performance domain leveraging rapid advance technology driving soaring stock price measured productivity growth declined past decade income stagnated late majority american potential explanation clash expectation statistic false hope mismeasurement redistribution implementation lag argue lag biggest contributor paradox impressive capability particularly based machine learning diffused widely importantly like general purpose technology effect won realized wave complementary innovation developed implemented required adjustment cost organizational change new skill modeled kind intangible capital portion value intangible capital reflected market value firm going forward national statistic fail measure benefit new technology wrong sign</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.16486011172498352]</t>
+          <t>[0.024376913480900396]</t>
         </is>
       </c>
       <c r="F74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2734,29 +2734,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>increasing incorporation artificial intelligence automated decision making procedure highlight importance decision theory automated need decision procedure explainable involved traditional realist account explanation explanation relation hold hold eternally explanans explanandum adequate account notion explanation required artificial decision procedure offer alternative account explanation context automated decision making explanation epistemic phenomenon dependent context account explanation better account way talk explanation derived concept explanatory power allows differentiate reason cause hand need epistemic aspect explanation aspect theoretical backdrop review existing approach explanation artificial intelligence machine learning suggest desideratum truly explainable decision fulfill good constructing post hoc decision especially clearly exclusively intuitive spontaneous unconscious decision generally count adequate explanation</t>
+          <t>summarize framework study implication automation demand labor wage employment task based framework emphasizes displacement effect automation creates machine replace labor task perform displacement effect tends reduce demand labor wage counteracted productivity effect resulting cost saving generated automation increase demand labor automated task productivity effect complemented additional capital accumulation deepening automation improvement existing machinery increase demand labor countervailing effect incomplete strong automation crease output worker wage reduce labor national income powerful countervailing force automation creation new labor intensive task reinstates labor new activity tends increase labor counterbalance impact automation framework highlight constraint imperfection slow adjustment economy labor market automation weaken resulting productivity gain transformation mismatch skill requirement new technology possibility automation introduced excessive rate possibly expense productivity enhancing technology</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[8, 9]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.020182319522830502]</t>
+          <t>[0.05397132134629108, 0.01883889680933482]</t>
         </is>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2765,18 +2765,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[16]</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>[5]</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>combination availability large finegrained human behavioral advance machine learning presiding growing reliance algorithm address complex societal problem algorithmic decision making process lead objective potentially fairer decision human influenced greed prejudice fatigue hunger algorithmic decision making criticized potential enhance discrimination information power asymmetry opacity paper provide overview available technical solution enhance fairness accountability transparency algorithmic decision making highlight criticality urgency engage multi disciplinary team researcher practitioner policy maker citizen develop deploy evaluate world algorithmic decision making process designed maximize fairness transparency open algortihms opal project step</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>[7]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.0]</t>
+          <t>[0.020310597982571905]</t>
         </is>
       </c>
       <c r="F76" t="b">
@@ -2792,29 +2796,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>participant nber conference artificial intelligence helpful discussion comment view expressed author necessarily reflect view national bureau economic research nber working paper circulated discussion comment purpose peer reviewed subject review nber board director accompanies official nber publication</t>
+          <t>examine susceptible job computerisation ass begin implementing novel methodology estimate probability computerisation detailed occupation gaussian process classifier based estimate examine expected impact future computerisation labour market outcome primary objective analysing number job risk relationship occupation probability computerisation wage educational attainment according estimate percent employment risk provide evidence wage educational attainment exhibit strong negative relationship occupation probability computerisation</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[8, 9]</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.021568247045342985]</t>
+          <t>[0.056544135834655625, 0.02220122392366542]</t>
         </is>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2823,22 +2827,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>live paradox artificial intelligence match surpass human level performance domain leveraging rapid advance technology driving soaring stock price measured productivity growth declined past decade income stagnated late majority american potential explanation clash expectation statistic false hope mismeasurement redistribution implementation lag argue lag biggest contributor paradox impressive capability particularly based machine learning diffused widely importantly like general purpose technology effect won realized wave complementary innovation developed implemented required adjustment cost organizational change new skill modeled kind intangible capital portion value intangible capital reflected market value firm going forward national statistic fail measure benefit new technology wrong sign</t>
+          <t>paper present comprehensive review study employ operational research artificial intelligence technique assessment bank performance discus numerous application envelopment analysis widely applied technique field discus application technique neural network support vector machine multicriteria decision aid recent bank failure prediction study assessment bank</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.024376913480900396]</t>
+          <t>[0.018049169195088463]</t>
         </is>
       </c>
       <c r="F78" t="b">
@@ -2854,29 +2858,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>summarize framework study implication automation demand labor wage employment task based framework emphasizes displacement effect automation creates machine replace labor task perform displacement effect tends reduce demand labor wage counteracted productivity effect resulting cost saving generated automation increase demand labor automated task productivity effect complemented additional capital accumulation deepening automation improvement existing machinery increase demand labor countervailing effect incomplete strong automation crease output worker wage reduce labor national income powerful countervailing force automation creation new labor intensive task reinstates labor new activity tends increase labor counterbalance impact automation framework highlight constraint imperfection slow adjustment economy labor market automation weaken resulting productivity gain transformation mismatch skill requirement new technology possibility automation introduced excessive rate possibly expense productivity enhancing technology</t>
+          <t>reliable water level forecasting reservoir inflow essential reservoir operation objective paper develop apply hybrid model daily water level forecasting investigate accuracy hybrid model wavelet based artificial neural network wann wavelet based adaptive neuro fuzzy inference wanfis wavelet decomposition employed decompose input time series approximation component decomposed time series input artificial neural network ann adaptive neuro fuzzy inference anfis wann wanfis model respectively based statistical performance wann wanfis model produce better efficiency ann anfis model wanfis sym yield best performance model wavelet decomposition improves accuracy ann anfis study evaluates accuracy wann wanfis model different mother wavelet including daubechies symmlet coiflet wavelet model performance dependent input set mother wavelet wavelet decomposition mother wavelet improve efficiency ann anfis model result obtained study indicate conjunction wavelet decomposition artificial intelligence model useful tool accurate forecasting daily water level yield better efficiency conventional forecasting model</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.05397132134629108, 0.01883889680933482]</t>
+          <t>[0.04625217022460014]</t>
         </is>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2885,22 +2889,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[7]</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>combination availability large finegrained human behavioral advance machine learning presiding growing reliance algorithm address complex societal problem algorithmic decision making process lead objective potentially fairer decision human influenced greed prejudice fatigue hunger algorithmic decision making criticized potential enhance discrimination information power asymmetry opacity paper provide overview available technical solution enhance fairness accountability transparency algorithmic decision making highlight criticality urgency engage multi disciplinary team researcher practitioner policy maker citizen develop deploy evaluate world algorithmic decision making process designed maximize fairness transparency open algortihms opal project step</t>
+          <t>electricity important asset influence economy political social security country reliable accurate planning prediction electricity demand country vital paper electricity demand ontario province canada modeled adaptive neuro fuzzy inference anfis neuro fuzzy structure defined ann artificial neural network trained experimental parameter fuzzy inference fis input model include number employment gross domestic product gdp population dwelling count meteorological parameter related annual weather temperature collected screened statistical method based neuro fuzzy model electricity demand built electricity demand sensitive employment</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.020310597982571905]</t>
+          <t>[0.04388113665958206]</t>
         </is>
       </c>
       <c r="F80" t="b">
@@ -2916,29 +2920,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[11, 9]</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>paper dedicated birthday angus maddison memory robert mcguckin conference board conference version paper possible creative research assistance robert krenn jesse wiener brought new insight revision extension view expressed author necessarily reflect view national bureau economic research nber working paper circulated discussion comment purpose peerreviewed subject review nber board director accompanies official nber publication</t>
+          <t>city region twentieth century radical turn taking place information communication technology converging innovation led regional economy innovative cluster agglomeration intelligent city orientation creation environment improve cognitive skill ability learn foresee innovate paper discus driving force sustaining rise intelligent city globalization innovation cluster network open innovation web based collaborative environment look movement shaping local initiative world european living lab application developed large company like ibm cisco paper focus planning challenge building intelligent city interactive innovation discus problem integration physical institutional digital dimension intelligent city bridge connect spatiality</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[9, 11]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.0110695742049804]</t>
+          <t>[0.11498477401738215, 0.021921868524742323]</t>
         </is>
       </c>
       <c r="F81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2947,22 +2951,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[8, 4]</t>
+          <t>[6, 11]</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>examine susceptible job computerisation ass begin implementing novel methodology estimate probability computerisation detailed occupation gaussian process classifier based estimate examine expected impact future computerisation labour market outcome primary objective analysing number job risk relationship occupation probability computerisation wage educational attainment according estimate percent employment risk provide evidence wage educational attainment exhibit strong negative relationship occupation probability computerisation</t>
+          <t>problem statement recent commercial residential development substantially impacted flux quality water recharge aquifer discharge stream lake wetland ultimately recycled potable contaminant source varied scope composition issue urban water sustainability public health concern level economic development worldwide require cheap innovative environmental sensing capability interactive monitoring network tailored distributed water treatment technology address need roundtable organized explore potential role advance biotechnology bioengineering aid developing causative relationship spatial temporal change urbanization pattern groundwater surface water quality parameter address aspect socioeconomic constraint implementing sustainable exploitation water resource workshop outcome interactive framework quantitative analysis coupling human natural requires integrating information derived online offline point measurement geographic information gi based remote sensing imagery analysis groundwater</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[9, 11]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.056544135834655625, 0.02220122392366542]</t>
+          <t>[0.13843401547484194, 0.03355810747465617]</t>
         </is>
       </c>
       <c r="F82" t="b">
@@ -2978,22 +2982,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[12, 16]</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>author disclosed financial relationship potential relevance research information available online http www nber org paper ack nber working paper circulated discussion comment purpose peer reviewed subject review nber board director accompanies official nber publication</t>
+          <t>chapter present methodology maintenance optimization heterogeneous infrastructure composed multiple facility different characteristic environment material deterioration process present stage approach step optimal near optimal maintenance policy facility input level optimization second step problem formulated constrained combinatorial optimization problem best combination facility level optimal near optimal solution identified evolutionary algorithm adopted solve combinatorial optimization problem performance evaluated hypothetical pavement section near optimal solution difference optimal solution obtained numerical experiment potential proposed algorithm solve maintenance optimization problem realistic heterogeneous</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[9, 11]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.03371502693168796]</t>
+          <t>[0.027459173808269375, 0.018031417929509835]</t>
         </is>
       </c>
       <c r="F83" t="b">
@@ -3009,22 +3013,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[8, 9]</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>paper present comprehensive review study employ operational research artificial intelligence technique assessment bank performance discus numerous application envelopment analysis widely applied technique field discus application technique neural network support vector machine multicriteria decision aid recent bank failure prediction study assessment bank</t>
+          <t>impact industrial digital information revolution undoubtedly substantial practically aspect society life firm employment forthcoming revolution produce similar farreaching effect examining analogous invention industrial digital revolution article claim target bring extensive change affect aspect society life addition impact firm employment considerable resulting richly interconnected organization decision making based analysis exploitation big intensified global competition firm capable buying good obtaining service world internet exploiting unlimited additional benefit open widespread usage invention paper concludes significant competitive advantage continue accrue utilizing internet widely willing entrepreneurial risk order turn innovative worldwide commercial success story greatest challenge facing society firm utilising benefit availing technology providing vast opportunity new immense productivity improvement avoiding danger disadvantage term unemployment greater wealth inequality</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[10, 11]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.018049169195088463]</t>
+          <t>[0.039242434725776855, 0.02154368926575802]</t>
         </is>
       </c>
       <c r="F84" t="b">
@@ -3040,22 +3044,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>reliable water level forecasting reservoir inflow essential reservoir operation objective paper develop apply hybrid model daily water level forecasting investigate accuracy hybrid model wavelet based artificial neural network wann wavelet based adaptive neuro fuzzy inference wanfis wavelet decomposition employed decompose input time series approximation component decomposed time series input artificial neural network ann adaptive neuro fuzzy inference anfis wann wanfis model respectively based statistical performance wann wanfis model produce better efficiency ann anfis model wanfis sym yield best performance model wavelet decomposition improves accuracy ann anfis study evaluates accuracy wann wanfis model different mother wavelet including daubechies symmlet coiflet wavelet model performance dependent input set mother wavelet wavelet decomposition mother wavelet improve efficiency ann anfis model result obtained study indicate conjunction wavelet decomposition artificial intelligence model useful tool accurate forecasting daily water level yield better efficiency conventional forecasting model</t>
+          <t>market abuse attracted attention financial regulator world difficult fully prevent reason lack thoroughly study market abuse strategy corresponding effective market abuse approach paper strategy reported price manipulation analysed related empirical study transformation defined convert time varying financial trading time series machine learning algorithm easily applied detection price manipulation evaluation experiment conducted stock nasdaq promising improved performance effectively detecting manipulation</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.04625217022460014]</t>
+          <t>[0.031488134036661244]</t>
         </is>
       </c>
       <c r="F85" t="b">
@@ -3071,22 +3075,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[7]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>electricity important asset influence economy political social security country reliable accurate planning prediction electricity demand country vital paper electricity demand ontario province canada modeled adaptive neuro fuzzy inference anfis neuro fuzzy structure defined ann artificial neural network trained experimental parameter fuzzy inference fis input model include number employment gross domestic product gdp population dwelling count meteorological parameter related annual weather temperature collected screened statistical method based neuro fuzzy model electricity demand built electricity demand sensitive employment</t>
+          <t>society increasingly relying driven predictive model automated decision making design nature noisiness observational model systematically disadvantage belonging certain category group instead relying solely individual merit happen computing process fair intentioned mining study predictive model free discrimination historical built biased incomplete contain past discriminatory decision discrimination aware mining emerging research discipline firm consensus measure performance algorithm goal survey review discrimination measure analytically computationally analyze performance highlight implication measure measure discipline measuring discrimination potentially suitable purpose survey primarily intended researcher mining machine learning step producing unifying view performance criterion developing new algorithm discriminatory predictive modeling addition practitioner policy maker study diagnosing potential discrimination predictive model</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.04388113665958206]</t>
+          <t>[0.019010520408641637]</t>
         </is>
       </c>
       <c r="F86" t="b">
@@ -3102,22 +3106,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[6, 12]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>user requested enhancement downloaded file</t>
+          <t>background increasing discriminatory challenge facing artificial intelligence application paper examines requirement needed comply european discrimination law prevent discrimination automated online job advertising business paper explains circumstance automated targeting job advertisement direct indirect discrimination paper concludes technical recommendation dismantle danger automated job advertising option like influencing pre processing big altering algorithmic model evaluated paper examines possibility technique like mining machine learning actively battle direct indirect discrimination european discrimination directive prohibit direct indirect discrimination field employment ground race ethnic origin sex sexual orientation religious belief disability legal framework</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>[9, 11]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.010868869401729998, 0.006269477516655848]</t>
+          <t>[0.02736101425502329]</t>
         </is>
       </c>
       <c r="F87" t="b">
@@ -3133,29 +3137,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[11, 9]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>city region twentieth century radical turn taking place information communication technology converging innovation led regional economy innovative cluster agglomeration intelligent city orientation creation environment improve cognitive skill ability learn foresee innovate paper discus driving force sustaining rise intelligent city globalization innovation cluster network open innovation web based collaborative environment look movement shaping local initiative world european living lab application developed large company like ibm cisco paper focus planning challenge building intelligent city interactive innovation discus problem integration physical institutional digital dimension intelligent city bridge connect spatiality</t>
+          <t>long cartographic tradition describing city focus characteristic resident review history type urban social analysis highlight persistent challenge paper existing geodemographic approach extended coupling kohonen self organizing map algorithm som mining technique geographic information gi approach allows construction linked map social attribute geographic space novel type geodemographic classification allows hoc hierarchical grouping exploration relationship social similarity geographic proximity allows filter complex demographic datasets capable highlighting general social pattern retaining fundamental social fingerprint city dataset describing attribute census tract new york city analyzed illustrate technique pair social geographic map formally compared simple pattern metric analysis new york city question assumption functional spatial relationship underlie modeling statistical technique</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[9, 11]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.11498477401738215, 0.021921868524742323]</t>
+          <t>[0.10682922789785951]</t>
         </is>
       </c>
       <c r="F88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3164,29 +3168,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[6, 11]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>problem statement recent commercial residential development substantially impacted flux quality water recharge aquifer discharge stream lake wetland ultimately recycled potable contaminant source varied scope composition issue urban water sustainability public health concern level economic development worldwide require cheap innovative environmental sensing capability interactive monitoring network tailored distributed water treatment technology address need roundtable organized explore potential role advance biotechnology bioengineering aid developing causative relationship spatial temporal change urbanization pattern groundwater surface water quality parameter address aspect socioeconomic constraint implementing sustainable exploitation water resource workshop outcome interactive framework quantitative analysis coupling human natural requires integrating information derived online offline point measurement geographic information gi based remote sensing imagery analysis groundwater</t>
+          <t>present aidr artificial intelligence disaster response platform designed perform automatic classification crisis related microblog communication aidr enables human machine work apply human intelligence large scale speed objective aidr classify message post disaster set user defined category information need damage purpose continuously ingests twitter process machine learning classification technique leverage human participation crowdsourcing time aidr successfully tested classify informative informative tweet posted pakistan earthquake overall achieved classification quality measured auc aidr available http aidr qcri org</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>[9, 11]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.13843401547484194, 0.03355810747465617]</t>
+          <t>[0.02049497832073982]</t>
         </is>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3195,29 +3199,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[12, 16]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>chapter present methodology maintenance optimization heterogeneous infrastructure composed multiple facility different characteristic environment material deterioration process present stage approach step optimal near optimal maintenance policy facility input level optimization second step problem formulated constrained combinatorial optimization problem best combination facility level optimal near optimal solution identified evolutionary algorithm adopted solve combinatorial optimization problem performance evaluated hypothetical pavement section near optimal solution difference optimal solution obtained numerical experiment potential proposed algorithm solve maintenance optimization problem realistic heterogeneous</t>
+          <t>paper present result attempt perform modeling concentration urban area vicinity copper smelter bor serbia anfis methodological approach aim obtained model develop prediction tool calculate potential concentration prescribed limitation based input parameter predictor technogenic meteorological input parameter considered accordingly dependence concentration modeled function wind speed wind direction air temperature humidity sulfur emitted process sulfidic copper concentration treatment</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[9, 11]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.027459173808269375, 0.018031417929509835]</t>
+          <t>[0.04771776805245892]</t>
         </is>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3226,29 +3230,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>impact industrial digital information revolution undoubtedly substantial practically aspect society life firm employment forthcoming revolution produce similar far reaching effect examining analogous invention industrial digital revolution article claim target bring extensive change affect aspect society life addition impact firm employment considerable resulting richly interconnected organization decision making based analysis exploitation big intensified global competition firm capable buying good obtaining service world internet exploiting unlimited additional benefit open widespread usage invention paper concludes significant competitive advantage continue accrue utilizing internet widely willing entrepreneurial risk order turn innovative product service worldwide commercial success story greatest challenge facing society firm utilising benefit availing technology providing vast opportunity new product service immense productivity improvement avoiding danger disadvantage term unemployment greater wealth inequality</t>
+          <t>study present basic concept application artificial intelligence ai development intelligent transport smart city india growing urbanization government realized need developing smart city cope challenge urban living magnet investment india transport smart city accessible safe environmentally friendly faster comfortable affordable compromising future need indian city largely lack intelligent transport india problem inefficient public transport severe congestion increasing incidence road accident inadequate parking space rapidly increasing energy cost development intelligent transportation essential smart city concern environmental economic social equity artificial intelligence technology resolve issue urgent need adopt artificial intelligence development intelligent transport better understand control operation smart city main objective study present basic concept artificial intelligence application development intelligent transport smart city india study concludes artificial intelligence need adopted develop smart public transport intelligent traffic management control smart traveller information smart parking management safe mobility emergency smart city expected study pave way development intelligent transport smart city india</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.04139858614192499]</t>
+          <t>[0.17924428790117666]</t>
         </is>
       </c>
       <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3257,22 +3261,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>market abuse attracted attention financial regulator world difficult fully prevent reason lack thoroughly study market abuse strategy corresponding effective market abuse approach paper strategy reported price manipulation analysed related empirical study transformation defined convert time varying financial trading time series machine learning algorithm easily applied detection price manipulation evaluation experiment conducted stock nasdaq promising improved performance effectively detecting manipulation</t>
+          <t>license plate recognition lpr divided following step preprocessing plate region extraction plate region thresholding character segmentation character recognition post processing step combination color shape information plate satisfactory extraction result achieved step channel selected threshold computed finally region thresholded step character segmented vertical horizontal direction tentative optimization applied step euclidean distance based template matching confusing character special processing necessary step validity checked machine manual experiment performed program based aforementioned algorithm indicates lpr based color image processing quick accurate</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.031488134036661244]</t>
+          <t>[0.013058254822632153]</t>
         </is>
       </c>
       <c r="F92" t="b">
@@ -3288,22 +3292,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>society increasingly relying driven predictive model automated decision making design nature noisiness observational model systematically disadvantage belonging certain category group instead relying solely individual merit happen computing process fair intentioned mining study predictive model free discrimination historical built biased incomplete contain past discriminatory decision discrimination aware mining emerging research discipline firm consensus measure performance algorithm goal survey review discrimination measure analytically computationally analyze performance highlight implication measure measure discipline measuring discrimination potentially suitable purpose survey primarily intended researcher mining machine learning step producing unifying view performance criterion developing new algorithm discriminatory predictive modeling addition practitioner policy maker study diagnosing potential discrimination predictive model</t>
+          <t>new nonlinear artificial intelligence ensemble prediction naiep model developed predicting typhoon based multiple neural network expected output evolutionary genetic algorithm model validated short range forecast typhoon south china sea sc result naiep model clearly better climatology persistence cliper model forecast typhoon identical predictor sample prediction genetic neural network gnn ensemble prediction gnnep model compared single gnn prediction model proven theoretically accurate computation analysis generalization capacity gnnep demonstrate prediction ensemble model integrates prediction optimized ensemble member generalization capacity ensemble prediction model enhanced model better address overfitting problem generally exists traditional neural network approach practical weather prediction</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.019010520408641637]</t>
+          <t>[0.020328983685991273]</t>
         </is>
       </c>
       <c r="F93" t="b">
@@ -3319,29 +3323,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>background increasing discriminatory challenge facing artificial intelligence application paper examines requirement needed comply european discrimination law prevent discrimination automated online job advertising business paper explains circumstance automated targeting job advertisement direct indirect discrimination paper concludes technical recommendation dismantle danger automated job advertising option like influencing pre processing big altering algorithmic model evaluated paper examines possibility technique like mining machine learning actively battle direct indirect discrimination european discrimination directive prohibit direct indirect discrimination field employment ground race ethnic origin sex sexual orientation religious belief disability legal framework</t>
+          <t>automatic video analysis urban surveillance camera fast emerging field based vision technique present comprehensive review state art vision traffic video critical analysis outlook future research direction field increasing relevance intelligent transport decreasing hardware cost increasing deployment camera opened wide application field video analytics monitoring objective congestion traffic rule violation vehicle interaction targeted camera typically originally installed human operator detection classification vehicle highway successfully classical visual surveillance technique background estimation motion tracking time urban domain challenging respect traffic density camera angle lead degree occlusion variety road user method object categorization modeling inspired advanced technique tackle challenge commonly set benchmark challenge direct comparison proposed algorithm difficult addition evaluation challenging weather condition rain fog darkness desirable rarely performed future work directed robust combined detector classifier road user focus realistic condition evaluation</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.02736101425502329]</t>
+          <t>[0.057600277945634534]</t>
         </is>
       </c>
       <c r="F94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3350,22 +3354,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>paper compare computational sociological study norm resimulate previous simulation conte</t>
+          <t>loss matter captured statistic way dollar value engineer chipping away staggering number long time air bag seat belt save thousand supercomputer let designer create car frame body protect inside absorbing energy crash possible result number fatality mile vehicle travel decreased ultimate solution save far life limb money car smashing place exactly engineer united state europe japan trying applying advanced microprocessor radar speed ic signal processing chip algorithm program mark face automotive industry safety kick accident occurs attempting minimize injury damage prevent collision altogether collision avoidance feature road pricey adaptive cruise control option group luxury car</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.016918562231883108]</t>
+          <t>[0.032756840998634705]</t>
         </is>
       </c>
       <c r="F95" t="b">
@@ -3381,22 +3385,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>harmful algal bloom considered environmental problem nowadays occur coastal water world cause acute ecological damage ensuing economic loss fish kill shellfish poisoning public health threat posed toxic bloom recently driven model including machine learning technique employed mimic dynamic algal bloom important step application technique selection significant model input variable present paper extensively technique artificial neural network ann genetic programming selecting significant input variable efficacy technique demonstrated test problem known dependence applied world study water quality tolo harbour hong kong technique overcome limitation currently technique input variable selection review presented interpretation weight trained ann evolved equation demonstrate ability identify ecologically significant variable precisely significant variable suggested technique indicate chlorophyll chla significant input predicting algal bloom suggesting auto regressive nature persistence algal bloom dynamic related long flushing time semi enclosed coastal water study confirms previous understanding algal bloom coastal water hong kong occur life cycle order week</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>[11]</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>long cartographic tradition describing city focus characteristic resident review history type urban social analysis highlight persistent challenge paper existing geodemographic approach extended coupling kohonen self organizing map algorithm som mining technique geographic information gi approach allows construction linked map social attribute geographic space novel type geodemographic classification allows hoc hierarchical grouping exploration relationship social similarity geographic proximity allows filter complex demographic datasets capable highlighting general social pattern retaining fundamental social fingerprint city dataset describing attribute census tract new york city analyzed illustrate technique pair social geographic map formally compared simple pattern metric analysis new york city question assumption functional spatial relationship underlie modeling statistical technique</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>[10]</t>
-        </is>
-      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.10682922789785951]</t>
+          <t>[0.04977162021888769]</t>
         </is>
       </c>
       <c r="F96" t="b">
@@ -3412,12 +3416,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>present aidr artificial intelligence disaster response platform designed perform automatic classification crisis related microblog communication aidr enables human machine work apply human intelligence large scale speed objective aidr classify message post disaster set user defined category information need damage purpose continuously ingests twitter process machine learning classification technique leverage human participation crowdsourcing time aidr successfully tested classify informative informative tweet posted pakistan earthquake overall achieved classification quality measured auc aidr available http aidr qcri org</t>
+          <t>forest importantly influence environment life ability accurately predicting area involved forest event help optimizing management effort given complexity task powerful computational tool needed predicting area burned forest purpose study develop intelligent based genetic programming prediction burned area related forest analysis meteorological geometric semantic genetic programming based recently defined geometric semantic genetic operator genetic programming experimental result achieved database forest event showed appropriateness proposed prediction burned area particular result obtained geometric semantic genetic programming significantly better produced standard genetic programming state art machine learning method training sample study suggests deeper investigation genetic programming field forest prediction productive giere que investigaciones ma profundas programacion genetica campo prediccion los incendios forestales pueden ser productivas</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3427,7 +3431,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.02049497832073982]</t>
+          <t>[0.12703820898379764]</t>
         </is>
       </c>
       <c r="F97" t="b">
@@ -3443,29 +3447,29 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>[8]</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>pedestrian vulnerable traffic participant motion prediction utmost importance intelligent transportation predicting motion pedestrian especially hard structured environment inertia compared road vehicle account uncertainty present approach probabilistic prediction pedestrian motion markov chain contrast previous work consider motion model constraint semantic map goal explicitly adapt prediction based crash probability traffic participant approach work situation typically challenging pure machine learning technique learn behavior particular road section consequently struggle different road section usefulness combining aforementioned aspect single approach demonstrated evaluation recording pedestrian</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>[11]</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>paper present result attempt perform modeling concentration urban area vicinity copper smelter bor serbia anfis methodological approach aim obtained model develop prediction tool calculate potential concentration prescribed limitation based input parameter predictor technogenic meteorological input parameter considered accordingly dependence concentration modeled function wind speed wind direction air temperature humidity sulfur emitted process sulfidic copper concentration treatment</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>[11]</t>
-        </is>
-      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.04771776805245892]</t>
+          <t>[0.019578534781652546]</t>
         </is>
       </c>
       <c r="F98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3474,29 +3478,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>study present basic concept application artificial intelligence ai development intelligent transport smart city india growing urbanization government realized need developing smart city cope challenge urban living magnet investment india transport smart city accessible safe environmentally friendly faster comfortable affordable compromising future need indian city largely lack intelligent transport india problem inefficient public transport severe congestion increasing incidence road accident inadequate parking space rapidly increasing energy cost development intelligent transportation essential smart city concern environmental economic social equity artificial intelligence technology resolve issue urgent need adopt artificial intelligence development intelligent transport better understand control operation smart city main objective study present basic concept artificial intelligence application development intelligent transport smart city india study concludes artificial intelligence need adopted develop smart public transport intelligent traffic management control smart traveller information smart parking management safe mobility emergency smart city expected study pave way development intelligent transport smart city india</t>
+          <t>recent advance field artificial intelligence increasing number decision making task delegated software requirement success adoption user trust choice fully automated decision achieve explanation facility widely investigated mean establishing trust early expert today increasingly sophisticated machine learning algorithm new challenge context explanation accountability trust constantly arise work systematically review literature explanation advice giving family includes recommender successful class advicegiving software practice investigate purpose explanation generated presented user evaluated result derive novel comprehensive taxonomy aspect considered designing explanation facility current future decision support taxonomy includes variety different facet explanation objective responsiveness content presentation identified challenge remain unaddressed far example related fine grained issue associated presentation explanation explanation facility evaluated</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.17924428790117666]</t>
+          <t>[0.020121858965089934]</t>
         </is>
       </c>
       <c r="F99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3505,18 +3509,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[16]</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
+          <t>[4]</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>rapid progress machine learning artificial intelligence brought increasing attention potential impact technology society paper discus potential impact problem accident machine learning defined unintended harmful behavior emerge poor design world present list practical research problem related accident risk categorized according problem originates having wrong objective function avoiding effect avoiding reward hacking objective function expensive evaluate frequently scalable supervision undesirable behavior learning process safe exploration distributional shift review previous work area suggesting research direction focus relevance cutting edge finally consider level question think productively safety forward looking application</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[0.0]</t>
+          <t>[0.02664051142220302]</t>
         </is>
       </c>
       <c r="F100" t="b">
@@ -3532,22 +3540,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>license plate recognition lpr divided following step preprocessing plate region extraction plate region thresholding character segmentation character recognition post processing step combination color shape information plate satisfactory extraction result achieved step channel selected threshold computed finally region thresholded step character segmented vertical horizontal direction tentative optimization applied step euclidean distance based template matching confusing character special processing necessary step validity checked machine manual experiment performed program based aforementioned algorithm indicates lpr based color image processing quick accurate</t>
+          <t>current globalization faced challenge meet continuously growing worldwide demand capital consumer good simultaneously ensuring sustainable evolvement human existence social environmental economic dimension order cope challenge industrial value creation geared sustainability currently industrial value creation early industrialized country shaped development fourth stage called industry development provides immense opportunity realization sustainable manufacturing paper present state art review industry based recent development research practice subsequently overview different opportunity sustainable manufacturing industry presented retrofitting manufacturing equipment specific opportunity sustainable manufacturing industry exemplarily outlined</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.013058254822632153]</t>
+          <t>[0.2022133893523552]</t>
         </is>
       </c>
       <c r="F101" t="b">
@@ -3563,29 +3571,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>new nonlinear artificial intelligence ensemble prediction naiep model developed predicting typhoon based multiple neural network expected output evolutionary genetic algorithm model validated short range forecast typhoon south china sea sc result naiep model clearly better climatology persistence cliper model forecast typhoon identical predictor sample prediction genetic neural network gnn ensemble prediction gnnep model compared single gnn prediction model proven theoretically accurate computation analysis generalization capacity gnnep demonstrate prediction ensemble model integrates prediction optimized ensemble member generalization capacity ensemble prediction model enhanced model better address overfitting problem generally exists traditional neural network approach practical weather prediction</t>
+          <t>climate impact study hydrology rely climate change information fine spatial resolution general circulation model gcms advanced tool estimating future climate change scenario operate coarse scale output gcm downscaled obtain information relevant hydrologic study paper support vector machine svm approach proposed statistical downscaling precipitation monthly time scale effectiveness approach illustrated application meteorological sub division msds india climate variable affecting spatio temporal variation precipitation msd india identified following pertaining identified climate variable predictor msd classified cluster analysis group representing wet dry season msd svm based downscaling model developed season significant rainfall principal component extracted predictor input contemporaneous precipitation observed msd output proposed shown superior conventional downscaling multi layer propagation artificial neural network subsequently svm based applied future climate prediction second generation coupled global climate model cgcm obtain future projection precipitation msds result analyzed ass impact climate change precipitation india shown svms provide promising alternative conventional artificial neural network statistical downscaling suitable conducting climate impact study</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.020328983685991273]</t>
+          <t>[0.1449261581977192]</t>
         </is>
       </c>
       <c r="F102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3594,29 +3602,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>automatic video analysis urban surveillance camera fast emerging field based vision technique present comprehensive review state art vision traffic video critical analysis outlook future research direction field increasing relevance intelligent transport decreasing hardware cost increasing deployment camera opened wide application field video analytics monitoring objective congestion traffic rule violation vehicle interaction targeted camera typically originally installed human operator detection classification vehicle highway successfully classical visual surveillance technique background estimation motion tracking time urban domain challenging respect traffic density camera angle lead degree occlusion variety road user method object categorization modeling inspired advanced technique tackle challenge commonly set benchmark challenge direct comparison proposed algorithm difficult addition evaluation challenging weather condition rain fog darkness desirable rarely performed future work directed robust combined detector classifier road user focus realistic condition evaluation</t>
+          <t>fully automated identification possible oil spill present synthetic aperture radar sar satellite image based artificial intelligence fuzzy logic developed oil spill recognized expert dark pattern characteristic shape particular context analyzes satellite image assigns probability dark image shape oil spill output consists image table providing user relevant information decision making study area aegean sea greece responded satisfactorily image processed complete algorithmic procedure coded visual ccc stand dynamic link library dll linked sort application variant window operating</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.057600277945634534]</t>
+          <t>[0.012632167904844522]</t>
         </is>
       </c>
       <c r="F103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3625,29 +3633,29 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>loss matter captured statistic way dollar value engineer chipping away staggering number long time air bag seat belt save thousand supercomputer let designer create car frame body protect inside absorbing energy crash possible result number fatality mile vehicle travel decreased ultimate solution save far life limb money car smashing place exactly engineer united state europe japan trying applying advanced microprocessor radar speed ic signal processing chip algorithm program mark face automotive industry safety kick accident occurs attempting minimize injury damage prevent collision altogether collision avoidance feature road pricey adaptive cruise control option group luxury car</t>
+          <t>understanding specific relationship ecological socioeconomic condition marine tenure contribute successful functioning self governance institution common pool resource complex factor influencing fishing activity coastal community implementation customary marine tenure water represented bayesian belief network model developed bayesian belief network model includes link factor fishing community kei island indonesia based indepth local survey result showed cumulative impact multiple factor social economic environmental outcome larger impact single source implies management policy intervention effective addressing multiple factor simultaneously local community perception fish stock abundance trend single important factor influencing social economic environmental outcome community based management frequency outsider sighted territorial water strongly negatively linked weak strong implementation customary tenure sasi occurrence intervillage intravillage conflict ecological variable drive conflict illustrates close connection ecological social outcome importance considering social ecological</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.032756840998634705]</t>
+          <t>[0.06120174274600509]</t>
         </is>
       </c>
       <c r="F104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3656,29 +3664,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>harmful algal bloom considered environmental problem nowadays occur coastal water world cause acute ecological damage ensuing economic loss fish kill shellfish poisoning public health threat posed toxic bloom recently driven model including machine learning technique employed mimic dynamic algal bloom important step application technique selection significant model input variable present paper extensively technique artificial neural network ann genetic programming selecting significant input variable efficacy technique demonstrated test problem known dependence applied world study water quality tolo harbour hong kong technique overcome limitation currently technique input variable selection review presented interpretation weight trained ann evolved equation demonstrate ability identify ecologically significant variable precisely significant variable suggested technique indicate chlorophyll chla significant input predicting algal bloom suggesting auto regressive nature persistence algal bloom dynamic related long flushing time semi enclosed coastal water study confirms previous understanding algal bloom coastal water hong kong occur life cycle order week</t>
+          <t>wallis alofi futuna island central pacific ocean characterized different reef geomorphology following request local environment service developed indicative conservation plan island objective representing extent coral reef habitat area keeping subsistence fishing ground open extraction objective ambitious current convention biological diversity aichi target objective achieved simultaneously large compromise needed size island dependence local community coral reef resource fishery objective significantly limited extent habitat available conservation problem exacerbated conservation plan larger conservation unit complex habitat typology result indicate international conservation guideline carefully adapted pacific island incentive feasible necessary reduction available fishing ground probably needed</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.04977162021888769]</t>
+          <t>[0.049149041739874375]</t>
         </is>
       </c>
       <c r="F105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3687,29 +3695,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>forest importantly influence environment life ability accurately predicting area involved forest event help optimizing management effort given complexity task powerful computational tool needed predicting area burned forest purpose study develop intelligent based genetic programming prediction burned area related forest analysis meteorological geometric semantic genetic programming based recently defined geometric semantic genetic operator genetic programming experimental result achieved database forest event showed appropriateness proposed prediction burned area particular result obtained geometric semantic genetic programming significantly better produced standard genetic programming state art machine learning method training sample study suggests deeper investigation genetic programming field forest prediction productive giere que investigaciones ma profundas programacion genetica campo prediccion los incendios forestales pueden ser productivas</t>
+          <t>competition marine space recognized challenge implementation new activity emerging blue growth initiative amplify competition marine spatial planning msp framework requires decision maker analyse spatially explicit environmental socio economic determine user conflict emerge consider potential management scenario present research spatially explicit bayesian belief network bbn applied purpose bbn developed analyse potential reallocation artisanal fishing effort alternative site introduction new area offshore aquaculture site basque continental shelf constructed model combined discrete operational fishery continuous environmental expert judgment produce fishing activity suitability map different metier longlines net trap bbn run effort reallocation scenario metier best alternative fishing location identified based environmental suitability past revenue past fishing presence closure lesser effect net longline activity displacing local fishing effort respectively comparatively local effort trap took place closed ground alternative site identified net greatest number alternative fishing ground surrounding aquaculture site present research demonstrates bbns support spatially explicit scenario building user user conflict analysis sustainable successful ecosystem based marine spatial planning</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.12703820898379764]</t>
+          <t>[0.07382034621909508]</t>
         </is>
       </c>
       <c r="F106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3718,22 +3726,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>pedestrian vulnerable traffic participant motion prediction utmost importance intelligent transportation predicting motion pedestrian especially hard structured environment inertia compared road vehicle account uncertainty present approach probabilistic prediction pedestrian motion markov chain contrast previous work consider motion model constraint semantic map goal explicitly adapt prediction based crash probability traffic participant approach work situation typically challenging pure machine learning technique learn behavior particular road section consequently struggle different road section usefulness combining aforementioned aspect single approach demonstrated evaluation recording pedestrian</t>
+          <t>artificial intelligence technique neural network fuzzy applied alternative method determine beach litter grading based litter survey antalya coastline turkish riviera litter measurement categorized assessed artificial intelligence technique lead new litter categorization constructed neural network satisfactorily predicted grading antalya beach litter category based number litter item general litter category concluded neural network speed prediction litter item beach grading characteristic main litter category field study save field effort fast reliable estimation litter category required management research study beach especially concerned health safety economic implication main advantage fuzzy consider linguistic adjectival definition result additional information inherent linguistic comment refinement judgment field study incorporated grading</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.019578534781652546]</t>
+          <t>[0.02256390152403482]</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -3754,17 +3762,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>recent advance field artificial intelligence increasing number decision making task delegated software requirement success adoption user trust choice fully automated decision achieve explanation facility widely investigated mean establishing trust early expert today increasingly sophisticated machine learning algorithm new challenge context explanation accountability trust constantly arise work systematically review literature explanation advice giving family includes recommender successful class advicegiving software practice investigate purpose explanation generated presented user evaluated result derive novel comprehensive taxonomy aspect considered designing explanation facility current future decision support taxonomy includes variety different facet explanation objective responsiveness content presentation identified challenge remain unaddressed far example related fine grained issue associated presentation explanation explanation facility evaluated</t>
+          <t>predicting oceanic process encountered problematic dynamic coastal water diverse physical chemical biological factor interact varied rapidly changing combination defining process requires efficient sampling specific water mass prompt sample return subsequent analysis compound challenge motivated effort develop mobile autonomous process sampling map autonomous underwater vehicle auvs feature recognized artificial intelligence integrates auv sensor estimate probabilistic state adaptive control survey navigation triggering targeted water sampler demonstrate utility map auv focused intermediate nepheloid layer inls episodic transport event play role zooplankton ecology multiple field test monterey bay california map auv recognized mapped sampled inls invertebrate larva contained water sample subsequently characterized molecular probe developed throughput screening preliminary result support hypothesis inls function vehicle episodic larval transport applying map greater coastal ocean observing permitted description regional oceanographic dynamic influenced pattern scale inl larval transport</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.020121858965089934]</t>
+          <t>[0.07889421035699383]</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -3780,29 +3788,29 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>rapid progress machine learning artificial intelligence brought increasing attention potential impact technology society paper discus potential impact problem accident machine learning defined unintended harmful behavior emerge poor design world present list practical research problem related accident risk categorized according problem originates having wrong objective function avoiding effect avoiding reward hacking objective function expensive evaluate frequently scalable supervision undesirable behavior learning process safe exploration distributional shift review previous work area suggesting research direction focus relevance cutting edge finally consider level question think productively safety forward looking application</t>
+          <t>canada pacific coast region renewed commitment pursue marine spatial planning msp british columbia marine conservation analysis bcmca project aimed set stage msp designed provide resource manager scientist decision maker stakeholder new set resource inform coast wide integrated marine planning management initiative geographic information decision support tool marxan develop main product atlas known marine ecological value human analysis area conservation value human value biophysical datasets human datasets collated refined applicable identified ecological expert workshop expert review physical marine classification representation guidance human working group ecological richness map marxan result importance nearshore continental shelf region richness map category human shipping transport closely linked shoreline continental shelf example ecological marxan solution identifying area conservation value overlapped human sector footprint percentage ranging planning unit selected marxan contain commercial fishery experience bcmca project potential provide valuable guidance region seeking jump start planning process collating spatial information carrying exploratory analysis</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.02664051142220302]</t>
+          <t>[0.08045432621881597]</t>
         </is>
       </c>
       <c r="F109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3811,29 +3819,29 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>current globalization faced challenge meet continuously growing worldwide demand capital consumer good simultaneously ensuring sustainable evolvement human existence social environmental economic dimension order cope challenge industrial value creation geared sustainability currently industrial value creation early industrialized country shaped development fourth stage called industry development provides immense opportunity realization sustainable manufacturing paper present state art review industry based recent development research practice subsequently overview different opportunity sustainable manufacturing industry presented retrofitting manufacturing equipment specific opportunity sustainable manufacturing industry exemplarily outlined</t>
+          <t>conservation planning research influenced conservation action globally decade successful implementation systematic conservation plan region customary marine tenure exists minimal region local community knowledge understanding socioeconomic reality offer best spatially explicit information analysis required socioeconomic available scale relevant conservation planning process undertaken kadavu yaubula management support team team researcher university south pacific local community ass systematic conservation planning tool effectively applied useful customary governance context study fiji participatory approach aim meeting local scale conservation fishery need spatial conservation planning tool marxan zone reconfigure collection locally designed marine protected area province kadavu order achieve broader objective local scale value tool process identifying conceptualising management issue working community collate participatory technique engaging community management decision making output tool secondary value outcome invaluable developing marine protected area network design approach combine traditional knowledge ecological feature manner appropriate melanesian context</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.2022133893523552]</t>
+          <t>[0.06345525115430277]</t>
         </is>
       </c>
       <c r="F110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3842,29 +3850,29 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>adaptive intelligent web based educational aiwbes provide alternative traditional web approach development web based educational courseware</t>
+          <t>environmental economic impact exotic fungal specie natural plantation forest historically catastrophic recorded surveillance control action challenging costly time consuming hazardous remote area prolonged period testing observation site based test limitation verify rapid proliferation exotic pathogen deterioration rate host recent remote sensing approach offered fast broad scale affordable survey additional indicator complement ground test paper proposes framework consolidates site based insight remote sensing capability detect segment deterioration fungal pathogen natural plantation forest approach illustrated experimentation myrtle rust austropuccinia psidii paperbark tea tree melaleuca quinquenervia new south wale nsw australia method integrates unmanned aerial vehicle uavs hyperspectral image sensor processing algorithm machine learning imagery acquired headwall nano hyperspec camera orthorectified headwall spectralview processed python programming language extreme gradient boosting xgboost geospatial abstraction library gdal scikit learn library sample extracted labelled class class deterioration status class background object insight reveal individual detection rate healthy tree deteriorated tree global multiclass detection rate methodology versatile applied additional datasets taken different image sensor processing large datasets freeware tool</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.005946827719420294]</t>
+          <t>[0.041636581156533306]</t>
         </is>
       </c>
       <c r="F111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3873,22 +3881,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>climate impact study hydrology rely climate change information fine spatial resolution general circulation model gcms advanced tool estimating future climate change scenario operate coarse scale output gcm downscaled obtain information relevant hydrologic study paper support vector machine svm approach proposed statistical downscaling precipitation monthly time scale effectiveness approach illustrated application meteorological sub division msds india climate variable affecting spatio temporal variation precipitation msd india identified following pertaining identified climate variable predictor msd classified cluster analysis group representing wet dry season msd svm based downscaling model developed season significant rainfall principal component extracted predictor input contemporaneous precipitation observed msd output proposed shown superior conventional downscaling multi layer propagation artificial neural network subsequently svm based applied future climate prediction second generation coupled global climate model cgcm obtain future projection precipitation msds result analyzed ass impact climate change precipitation india shown svms provide promising alternative conventional artificial neural network statistical downscaling suitable conducting climate impact study</t>
+          <t>conservation planning integral strategic effective operation conservation organization drawing biological science conservation planning historically limited social offer approach integrating social conservation planning capture place context spatial pattern trend human need capacity hierarchical approach provides nested framework characterizing mapping social domain economic health political empowerment education culture domain multiple attribute attribute characterized indicator existing novel display spatial temporal heterogeneity social conservation scientist planner decision maker measure benchmark map integrate conservation planning process selecting indicator integrating conservation planning iterative participatory process tailored local context planning goal social complement biophysical threat oriented social conservation planning process inform decision conserve biodiversity provide structure exploring socioecological relationship foster adaptive management building existing conservation planning method insight multiple discipline approach putting map readily merge current planning practice facilitate rigorous decision making</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.1449261581977192]</t>
+          <t>[0.04539734320613641]</t>
         </is>
       </c>
       <c r="F112" t="b">
@@ -3904,18 +3912,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[16]</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
+          <t>[8]</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ecoacoustic monitoring proved viable approach capture ecological related animal community expert manually annotate audio sample analysis large datasets significantly facilitated automatic pattern recognition method unsupervised learning method require labelled particularly suited analyse poorly documented habitat tropical environment propose new method named multiresolution analysis acoustic diversity maad automate detection relevant structure audio maad designed decompose acoustic community elementary component soundtypes based time frequency attribute short time fourier transform detect region roi time frequency domain characterised roi estimating median frequency running wavelet analysis multiple scale angle finally grouped roi model based subspace clustering technique roi automatically annotated clustered soundtypes test performance automatic method applied maad distinct tropical environment french guiana lowland rainforest rock savanna compared manual automatic annotation adjusted rand similarity manual automated partition consistent indicating cluster intelligible analysis weight feature estimated clustering process revealed important information structure acoustic community particular median frequency strongest effect modelling cluster classification performance suggesting role community organisation number cluster maad regarded estimation soundtype richness given environment maad comprehensive promising method automatically analyse passive acoustic recording combining maad manual analysis maximally exploit strength human reasoning algorithm composition acoustic community estimated accurately quickly large scale</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[0.0]</t>
+          <t>[0.01857391820223695]</t>
         </is>
       </c>
       <c r="F113" t="b">
@@ -3931,29 +3943,29 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>fully automated identification possible oil spill present synthetic aperture radar sar satellite image based artificial intelligence fuzzy logic developed oil spill recognized expert dark pattern characteristic shape particular context analyzes satellite image assigns probability dark image shape oil spill output consists image table providing user relevant information decision making study area aegean sea greece responded satisfactorily image processed complete algorithmic procedure coded visual ccc stand dynamic link library dll linked sort application variant window operating</t>
+          <t>extensive research ecosystem service mapped survey based biophysical approach comparative mapping public value quantified model lacking paper mapped hot cold spot perceived modeled ecosystem service synthesizing result social value mapping study resident living near pike san isabel national forest psi located southern rocky mountain corresponding biophysically modeled ecosystem service social value map psi developed social value ecosystem service tool providing statistically modeled continuous value surface value type including aesthetic biodiversity life sustaining value biophysically modeled map carbon sequestration storage scenic viewsheds sediment regulation water yield generated artificial intelligence ecosystem service tool hotspot perceived modeled service located psi wilderness area additionally regression analysis evaluate spatial relationship perceived biodiversity cultural ecosystem service corresponding biophysical model output goal determine publicly valued location aesthetic biodiversity life sustaining value relate meaningfully result corresponding biophysical ecosystem service model weak relationship perceived biophysically modeled service indicating public perception ecosystem service provisioning region limited believe biophysical social approach ecosystem service mapping serve methodological complement advance ecosystem service based resource management benefitting resource manager showing potential location synergy conflict area supplying ecosystem service valued public</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.012632167904844522]</t>
+          <t>[0.07536883401494748]</t>
         </is>
       </c>
       <c r="F114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3962,25 +3974,29 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[16]</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>effective sustainable forest management broad area need consistent country wide forest inventory stand level inventory appropriate unit local regional forest management south korea currently produce forest type map contains categorical parameter stand crucial forest attribute understanding forest ecosystem currently missing included future forest type map estimation forest stand challenging south korea stand exist irregular patch highly rugged terrain study proposed stand estimation model suitable rugged terrain highly mixed tree specie arithmetic mean target variable plot level estimation model developed descriptive statistic airborne light detection ranging lidar machine learning approach support vector regression svr modified regression tree random forest scheme central plot based scheme stand based scheme expanding plot level stand level investigated result showed varied performance metric coefficient determination root mean square error mean bias model forest estimation plot level statistically significant difference mean plot model svr term estimated bias value stand level validation based tree measurement selected stand produced varied result scheme machine learning implies additional reference thorough stand level validation identify statistically robust approach future nonetheless research finding study guide estimating stand forest rugged terrain complex composition tree specie</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.0]</t>
+          <t>[0.09481178964176411]</t>
         </is>
       </c>
       <c r="F115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3989,22 +4005,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>understanding specific relationship ecological socioeconomic condition marine tenure contribute successful functioning self governance institution common pool resource complex factor influencing fishing activity coastal community implementation customary marine tenure water represented bayesian belief network model developed bayesian belief network model includes link factor fishing community kei island indonesia based indepth local survey result showed cumulative impact multiple factor social economic environmental outcome larger impact single source implies management policy intervention effective addressing multiple factor simultaneously local community perception fish stock abundance trend single important factor influencing social economic environmental outcome community based management frequency outsider sighted territorial water strongly negatively linked weak strong implementation customary tenure sasi occurrence intervillage intravillage conflict ecological variable drive conflict illustrates close connection ecological social outcome importance considering social ecological</t>
+          <t>tropical forest condition important implication biodiversity climate change human need structural feature forest serve useful indicator forest condition potential assessed remotely sensed imagery provide quantitative information forest ecosystem temporal spatial resolution investigate utility remote sensing assessing predicting mapping important forest structural feature stem density basal area tropical littoral forest southeastern madagascar analysed relationship basal area stem density measurement normalised difference vegetation ndvi radiance measurement band landsat enhanced thematic mapper plus etm strong relationship identified individual band field based measurement basal area weak insignificant relationship spectral response stem density measurement ndvi significantly correlated basal area strongly significantly correlated stem density subset represented extreme value artificial neural network ann predict basal area radiance value band produce predictive map basal area entire forest landscape anns produced strong significant relationship predicted actual measure basal area jackknife method larger set map predicted basal area produced ann assessed relation pre existing map forest condition derived field assessment predictive map basal area provided finer stand structural heterogeneity captured known climatic influence forest structure displayed trend basal area associated degree human accessibility finding demonstrate utility anns integrating satellite landsat etm spectral band limited field survey ass pattern basal area landscape scale</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.06120174274600509]</t>
+          <t>[0.131532449668759]</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -4020,22 +4036,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>wallis alofi futuna island central pacific ocean characterized different reef geomorphology following request local environment service developed indicative conservation plan island objective representing extent coral reef habitat area keeping subsistence fishing ground open extraction objective ambitious current convention biological diversity aichi target objective achieved simultaneously large compromise needed size island dependence local community coral reef resource fishery objective significantly limited extent habitat available conservation problem exacerbated conservation plan larger conservation unit complex habitat typology result indicate international conservation guideline carefully adapted pacific island incentive feasible necessary reduction available fishing ground probably needed</t>
+          <t>marxan widely conservation planning software world designed solving complex conservation planning problem landscape seascape paper substantial extension marxan called marxan zone decision support tool provides landuse zoning option geographical region biodiversity conservation new function designed enhance original marxan software expand utility decision support tool major new element decision problem allowing parcel land sea allocated specific zone reserved unreserved zone option action objective constraint flexibility define contribution zone achieve target pre specified feature specie habitat objective minimize cost implementing zoning plan ensuring variety conservation land objective achieved outline capability limitation additional requirement new software perform comparison original version marxan feature number study demonstrate functionality software highlight flexibility address range complex spatial planning problem study demonstrate design multiple marine park western australia california zoning forest east kalimantan</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.049149041739874375]</t>
+          <t>[0.05865300264564184]</t>
         </is>
       </c>
       <c r="F117" t="b">
@@ -4051,22 +4067,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>competition marine space recognized challenge implementation new activity emerging blue growth initiative amplify competition marine spatial planning msp framework requires decision maker analyse spatially explicit environmental socio economic determine user conflict emerge consider potential management scenario present research spatially explicit bayesian belief network bbn applied purpose bbn developed analyse potential reallocation artisanal fishing effort alternative site introduction new area offshore aquaculture site basque continental shelf constructed model combined discrete operational fishery continuous environmental expert judgment produce fishing activity suitability map different metier longlines net trap bbn run effort reallocation scenario metier best alternative fishing location identified based environmental suitability past revenue past fishing presence closure lesser effect net longline activity displacing local fishing effort respectively comparatively local effort trap took place closed ground alternative site identified net greatest number alternative fishing ground surrounding aquaculture site present research demonstrates bbns support spatially explicit scenario building user user conflict analysis sustainable successful ecosystem based marine spatial planning</t>
+          <t>despite extensive research demonstrating benefit applying cost effective conservation technique optimization large gap remains evidence research action profession design implement conservation program study examines gap international survey conservation professional familiar cost effective conservation technique primary result study replicate previous result smaller sample agricultural preservation professional vast majority survey respondent viewed cost effectiveness virtue ultimately consider important program design criterion result reinforce idea advocate cost effective conservation need address concern fairness transparency remedy gap knowledge expertise professional involved finally lack incentive conservation professional change practice challenge public pressure encouragement experimentation evidence based policy improve cost effectiveness conservation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.07382034621909508]</t>
+          <t>[0.030001286130499245]</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -4082,25 +4098,29 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[16]</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>surveying threatened invasive specie obtain accurate population estimate important challenging task requires considerable investment time resource estimate existing ground based monitoring technique camera trap survey performed foot known resource intensive potentially inaccurate imprecise difficult validate recent development unmanned aerial vehicle uav artificial intelligence miniaturized thermal imaging represent new opportunity wildlife expert inexpensively survey relatively large area presented paper includes thermal image acquisition video processing pipeline perform object detection classification tracking wildlife forest open area tested thermal video ground based test flight footage able detect target wildlife located surveyed area flexible user readily define type object classify object characteristic considered classification</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.0]</t>
+          <t>[0.07643821043479525]</t>
         </is>
       </c>
       <c r="F119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -4109,22 +4129,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>artificial intelligence technique neural network fuzzy applied alternative method determine beach litter grading based litter survey antalya coastline turkish riviera litter measurement categorized assessed artificial intelligence technique lead new litter categorization constructed neural network satisfactorily predicted grading antalya beach litter category based number litter item general litter category concluded neural network speed prediction litter item beach grading characteristic main litter category field study save field effort fast reliable estimation litter category required management research study beach especially concerned health safety economic implication main advantage fuzzy consider linguistic adjectival definition result additional information inherent linguistic comment refinement judgment field study incorporated grading</t>
+          <t>number distribution free ranging giant panda essential formulation effective conservation strategy ideal method identify individual sex specie traditional bite size method bamboo fragment feces lack accuracy modern dna based estimation expensive demand fresh sample lack identifiable individual feature panda pelage apparent sexual dimorphism impede reliable estimation camera trap image propose innovative invasive technique identify sex specie footprint identification technique fit based pairwise comparison trail unbroken series footprint discriminant analysis ward clustering method collected footprint captive animal train algorithm animal model validation accuracy individual identification individual footprint fewer footprint trail accuracy sex discrimination single footprint trail cost effective method provides promising future monitoring wild panda population understanding dynamic especially useful monitoring reintroduced animal detachment gps collar collection protocol straightforward accessible citizen scientist conservation professional alike</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.02256390152403482]</t>
+          <t>[0.0653506055462148]</t>
         </is>
       </c>
       <c r="F120" t="b">
@@ -4140,29 +4160,29 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>predicting oceanic process encountered problematic dynamic coastal water diverse physical chemical biological factor interact varied rapidly changing combination defining process requires efficient sampling specific water mass prompt sample return subsequent analysis compound challenge motivated effort develop mobile autonomous process sampling map autonomous underwater vehicle auvs feature recognized artificial intelligence integrates auv sensor estimate probabilistic state adaptive control survey navigation triggering targeted water sampler demonstrate utility map auv focused intermediate nepheloid layer inls episodic transport event play role zooplankton ecology multiple field test monterey bay california map auv recognized mapped sampled inls invertebrate larva contained water sample subsequently characterized molecular probe developed throughput screening preliminary result support hypothesis inls function vehicle episodic larval transport applying map greater coastal ocean observing permitted description regional oceanographic dynamic influenced pattern scale inl larval transport</t>
+          <t>increasing number surveillance camera indoor outdoor location grown demand intelligent detects abnormal event human action recognition highly reached topic vision abnormal behavior detection lately attracting research attention proposed order ensure human safety paper interested study main step composing video surveillance behavior representation behavior modeling technique related feature extraction description behavior representation reviewed classification method framework behavior modeling provided available datasets metric performance evaluation presented finally example existing video surveillance world described</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.07889421035699383]</t>
+          <t>[0.015992715104115107]</t>
         </is>
       </c>
       <c r="F121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -4171,22 +4191,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>canada pacific coast region renewed commitment pursue marine spatial planning msp british columbia marine conservation analysis bcmca project aimed set stage msp designed provide resource manager scientist decision maker stakeholder new set resource inform coast wide integrated marine planning management initiative geographic information decision support tool marxan develop main product atlas known marine ecological value human analysis area conservation value human value biophysical datasets human datasets collated refined applicable identified ecological expert workshop expert review physical marine classification representation guidance human working group ecological richness map marxan result importance nearshore continental shelf region richness map category human shipping transport closely linked shoreline continental shelf example ecological marxan solution identifying area conservation value overlapped human sector footprint percentage ranging planning unit selected marxan contain commercial fishery experience bcmca project potential provide valuable guidance region seeking jump start planning process collating spatial information carrying exploratory analysis</t>
+          <t>visual surveillance dynamic scene especially human vehicle currently active research topic vision wide spectrum promising application including access control special area human identification distance crowd flux statistic congestion analysis detection anomalous behavior interactive surveillance multiple camera general processing framework visual surveillance dynamic scene includes following stage modeling environment detection motion classification moving object tracking understanding description behavior human identification fusion multiple camera review recent development general strategy stage finally analyze possible research direction occlusion handling combination twoand dimensional tracking combination motion analysis biometrics anomaly detection behavior prediction content based retrieval surveillance video behavior understanding natural language description fusion information multiple sensor remote surveillance</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.08045432621881597]</t>
+          <t>[0.014021641876944518]</t>
         </is>
       </c>
       <c r="F122" t="b">
@@ -4202,29 +4222,29 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>conservation planning research influenced conservation action globally decade successful implementation systematic conservation plan region customary marine tenure exists minimal region local community knowledge understanding socioeconomic reality offer best spatially explicit information analysis required socioeconomic available scale relevant conservation planning process undertaken kadavu yaubula management support team team researcher university south pacific local community ass systematic conservation planning tool effectively applied useful customary governance context study fiji participatory approach aim meeting local scale conservation fishery need spatial conservation planning tool marxan zone reconfigure collection locally designed marine protected area province kadavu order achieve broader objective local scale value tool process identifying conceptualising management issue working community collate participatory technique engaging community management decision making output tool secondary value outcome invaluable developing marine protected area network design approach combine traditional knowledge ecological feature manner appropriate melanesian context</t>
+          <t>game improve social awareness letting experience difficult social situation learn experience assert moving strict realism social simulation offer technique role play offer possibility feedback reflection discus design game interpersonal skill training domain law enforcement game feature intelligent virtual agent trainee interact different scenario improve social awareness interacting virtual agent trainee experience behaviour influence course intervention outcome discus intend improve learning experience game including meta technique role play close describing current future implementation game</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.06345525115430277]</t>
+          <t>[0.028854421246542597]</t>
         </is>
       </c>
       <c r="F123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -4233,29 +4253,29 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>environmental economic impact exotic fungal specie natural plantation forest historically catastrophic recorded surveillance control action challenging costly time consuming hazardous remote area prolonged period testing observation site based test limitation verify rapid proliferation exotic pathogen deterioration rate host recent remote sensing approach offered fast broad scale affordable survey additional indicator complement ground test paper proposes framework consolidates site based insight remote sensing capability detect segment deterioration fungal pathogen natural plantation forest approach illustrated experimentation myrtle rust austropuccinia psidii paperbark tea tree melaleuca quinquenervia new south wale nsw australia method integrates unmanned aerial vehicle uavs hyperspectral image sensor processing algorithm machine learning imagery acquired headwall nano hyperspec camera orthorectified headwall spectralview processed python programming language extreme gradient boosting xgboost geospatial abstraction library gdal scikit learn library sample extracted labelled class class deterioration status class background object insight reveal individual detection rate healthy tree deteriorated tree global multiclass detection rate methodology versatile applied additional datasets taken different image sensor processing large datasets freeware tool</t>
+          <t>paper envisions future autonomous agent foster support pro social behavior hybrid society human machine pro social behavior occurs agent perform costly action benefit act helping voluntarily donating charity providing information sharing resource pro social behavior discus question challenge purely utilitarian view human decision making contextualize role hybrid society condition mechanism lead society agent human pro social engineer autonomous entity agent robot lead altruistic cooperative behavior hybrid society propose social simulation game theory population dynamic study virtual environment robot agent human interact research constitute basis establishing foundation new field pro social computing aiming understanding predicting promoting pro sociality human artificial agent multiagent</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.041636581156533306]</t>
+          <t>[0.036354133806639925]</t>
         </is>
       </c>
       <c r="F124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -4264,29 +4284,29 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>conservation planning integral strategic effective operation conservation organization drawing biological science conservation planning historically limited social offer approach integrating social conservation planning capture place context spatial pattern trend human need capacity hierarchical approach provides nested framework characterizing mapping social domain economic health political empowerment education culture domain multiple attribute attribute characterized indicator existing novel display spatial temporal heterogeneity social conservation scientist planner decision maker measure benchmark map integrate conservation planning process selecting indicator integrating conservation planning iterative participatory process tailored local context planning goal social complement biophysical threat oriented social conservation planning process inform decision conserve biodiversity provide structure exploring socioecological relationship foster adaptive management building existing conservation planning method insight multiple discipline approach putting map readily merge current planning practice facilitate rigorous decision making</t>
+          <t>decade scientific research unmanned aerial vehicle uavs spectacularly led design multiple type aerial platform major challenge today development autonomously operating aerial agent capable completing mission independently human interaction extent visual sensing technique integrated control pipeline uavs order enhance navigation guidance skill aim article present comprehensive literature review vision based application uavs focusing mainly current development trend application sorted different category according research topic research group specifically vision based position attitude control pose estimation mapping obstacle detection target tracking identified component autonomous agent aerial platform reach greater level autonomy integrating technology onboard additionally article concept fusion multiple sensor highlighted overview challenge kanellakis</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.04539734320613641]</t>
+          <t>[0.015649541037758716]</t>
         </is>
       </c>
       <c r="F125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -4295,22 +4315,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>ecoacoustic monitoring proved viable approach capture ecological related animal community expert manually annotate audio sample analysis large datasets significantly facilitated automatic pattern recognition method unsupervised learning method require labelled particularly suited analyse poorly documented habitat tropical environment propose new method named multiresolution analysis acoustic diversity maad automate detection relevant structure audio maad designed decompose acoustic community elementary component soundtypes based time frequency attribute short time fourier transform detect region roi time frequency domain characterised roi estimating median frequency running wavelet analysis multiple scale angle finally grouped roi model based subspace clustering technique roi automatically annotated clustered soundtypes test performance automatic method applied maad distinct tropical environment french guiana lowland rainforest rock savanna compared manual automatic annotation adjusted rand similarity manual automated partition consistent indicating cluster intelligible analysis weight feature estimated clustering process revealed important information structure acoustic community particular median frequency strongest effect modelling cluster classification performance suggesting role community organisation number cluster maad regarded estimation soundtype richness given environment maad comprehensive promising method automatically analyse passive acoustic recording combining maad manual analysis maximally exploit strength human reasoning algorithm composition acoustic community estimated accurately quickly large scale</t>
+          <t>drone increasingly purpose recording footage inaccessible area delivering package rise drone usage introduces privacy security concern flying boundary drone collect public private space stored disseminated commercial personal drone regulation focusing privacy security fairly minimal united state inform privacy security guideline drone design regulation need understand user perception drone privacy security paper laboratory study participant interacted model drone elicit user perception privacy security issue drone present result discus implication work recommendation improve drone design regulation enhance individual privacy security</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.01857391820223695]</t>
+          <t>[0.018156917063604578]</t>
         </is>
       </c>
       <c r="F126" t="b">
@@ -4326,29 +4346,29 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>extensive research ecosystem service mapped survey based biophysical approach comparative mapping public value quantified model lacking paper mapped hot cold spot perceived modeled ecosystem service synthesizing result social value mapping study resident living near pike san isabel national forest psi located southern rocky mountain corresponding biophysically modeled ecosystem service social value map psi developed social value ecosystem service tool providing statistically modeled continuous value surface value type including aesthetic biodiversity life sustaining value biophysically modeled map carbon sequestration storage scenic viewsheds sediment regulation water yield generated artificial intelligence ecosystem service tool hotspot perceived modeled service located psi wilderness area additionally regression analysis evaluate spatial relationship perceived biodiversity cultural ecosystem service corresponding biophysical model output goal determine publicly valued location aesthetic biodiversity life sustaining value relate meaningfully result corresponding biophysical ecosystem service model weak relationship perceived biophysically modeled service indicating public perception ecosystem service provisioning region limited believe biophysical social approach ecosystem service mapping serve methodological complement advance ecosystem service based resource management benefitting resource manager showing potential location synergy conflict area supplying ecosystem service valued public</t>
+          <t>automated driving fundamentally change road transportation improve quality life present role human automated vehicle av clearly established interview conducted expert researcher field human factor automated driving identify commonality distinctive perspective challenge development av expert indicated sae level inform driver av capability operational status ensure safety changing automated manual mode research particularly address interaction av human driver vulnerable road user additionally driver training program modified ensure human capable av finally reflection interview provided showing discordance interviewee statementswhich appear long history work human factor research rapid development automation technology expect perspective instrumental stakeholder involved development instructive</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.07536883401494748]</t>
+          <t>[0.028071992191322653]</t>
         </is>
       </c>
       <c r="F127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -4357,22 +4377,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>effective sustainable forest management broad area need consistent country wide forest inventory stand level inventory appropriate unit local regional forest management south korea currently produce forest type map contains categorical parameter stand crucial forest attribute understanding forest ecosystem currently missing included future forest type map estimation forest stand challenging south korea stand exist irregular patch highly rugged terrain study proposed stand estimation model suitable rugged terrain highly mixed tree specie arithmetic mean target variable plot level estimation model developed descriptive statistic airborne light detection ranging lidar machine learning approach support vector regression svr modified regression tree random forest scheme central plot based scheme stand based scheme expanding plot level stand level investigated result showed varied performance metric coefficient determination root mean square error mean bias model forest estimation plot level statistically significant difference mean plot model svr term estimated bias value stand level validation based tree measurement selected stand produced varied result scheme machine learning implies additional reference thorough stand level validation identify statistically robust approach future nonetheless research finding study guide estimating stand forest rugged terrain complex composition tree specie</t>
+          <t>background aid worrying public health issue china lack timely effective surveillance diffusion adoption internet big aggregated internet search engine contain user information concern reality health status provide new opportunity aid surveillance paper search engine monitor forecast aid china method machine learning method artificial neural network anns forecast aid incidence death search trend related aid largest chinese search engine baiducom collected selected input variable anns officially reported actual aid incidence death output variable criterion mean absolute percentage error root mean squared percentage error agreement test forecasting performance ann method result based monthly time series january june article criterion ann method lead satisfactory forecasting aid incidence death regardless change number search query conclusion despite inability selfdetect hiv aid online searching internetbased adopted timely costeffective complement traditional aid surveillance</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.09481178964176411]</t>
+          <t>[0.05749150639930431]</t>
         </is>
       </c>
       <c r="F128" t="b">
@@ -4388,22 +4408,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>tropical forest condition important implication biodiversity climate change human need structural feature forest serve useful indicator forest condition potential assessed remotely sensed imagery provide quantitative information forest ecosystem temporal spatial resolution investigate utility remote sensing assessing predicting mapping important forest structural feature stem density basal area tropical littoral forest southeastern madagascar analysed relationship basal area stem density measurement normalised difference vegetation ndvi radiance measurement band landsat enhanced thematic mapper plus etm strong relationship identified individual band field based measurement basal area weak insignificant relationship spectral response stem density measurement ndvi significantly correlated basal area strongly significantly correlated stem density subset represented extreme value artificial neural network ann predict basal area radiance value band produce predictive map basal area entire forest landscape anns produced strong significant relationship predicted actual measure basal area jackknife method larger set map predicted basal area produced ann assessed relation pre existing map forest condition derived field assessment predictive map basal area provided finer stand structural heterogeneity captured known climatic influence forest structure displayed trend basal area associated degree human accessibility finding demonstrate utility anns integrating satellite landsat etm spectral band limited field survey ass pattern basal area landscape scale</t>
+          <t>introduction artificial intelligence branch science capable analysing complex medical potential exploit meaningful relationship set diagnosis treatment predicting outcome clinical scenario method medline internet search carried keywords artificial intelligence neural network reference obtained article overview different artificial intelligent technique presented paper review important clinical application result proficiency artificial intelligent technique explored field medicine artificial neural network commonly analytical tool whilst artificial intelligent technique fuzzy expert evolutionary computation hybrid intelligent different clinical setting discussion artificial intelligence technique potential applied field medicine need clinical trial appropriately designed emergent technique application clinical setting</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.131532449668759]</t>
+          <t>[0.011657684249587385]</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -4419,22 +4439,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>marxan widely conservation planning software world designed solving complex conservation planning problem landscape seascape paper substantial extension marxan called marxan zone decision support tool provides landuse zoning option geographical region biodiversity conservation new function designed enhance original marxan software expand utility decision support tool major new element decision problem allowing parcel land sea allocated specific zone reserved unreserved zone option action objective constraint flexibility define contribution zone achieve target pre specified feature specie habitat objective minimize cost implementing zoning plan ensuring variety conservation land objective achieved outline capability limitation additional requirement new software perform comparison original version marxan feature number study demonstrate functionality software highlight flexibility address range complex spatial planning problem study demonstrate design multiple marine park western australia california zoning forest east kalimantan</t>
+          <t>objective introduce summarize current research field public health epidemiology informatics method literature concerning public health epidemiology informatics searched pubmed web science returned reference reviewed section editor select candidate best paper paper peerreviewed external reviewer provide editorial team enlightened vision select best paper result reference retrieved pubmed web science finally selected best paper analyzes relationship disease social mass public emotion understand public overreaction leading noticeable reduction social economic activity context nationwide outbreak middle east respiratory syndrome mers korea second paper concern new methodology deidentify patient note electronic health record based artificial neural network outperformed existing method conclusion surveillance productive topic public health informatics important topic public health appearing example artificial intelligence approach increasing</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.05865300264564184]</t>
+          <t>[0.06423754425415147]</t>
         </is>
       </c>
       <c r="F130" t="b">
@@ -4450,22 +4470,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>despite extensive research demonstrating benefit applying cost effective conservation technique optimization large gap remains evidence research action profession design implement conservation program study examines gap international survey conservation professional familiar cost effective conservation technique primary result study replicate previous result smaller sample agricultural preservation professional vast majority survey respondent viewed cost effectiveness virtue ultimately consider important program design criterion result reinforce idea advocate cost effective conservation need address concern fairness transparency remedy gap knowledge expertise professional involved finally lack incentive conservation professional change practice challenge public pressure encouragement experimentation evidence based policy improve cost effectiveness conservation</t>
+          <t>optical microscope widely tool diagnosing infectious disease developing world reliance trained microscopist field microscopy suffers poor sensitivity specificity reproducibility goal work called autoscope lowcost automated digital microscope coupled set vision classification algorithm accurately diagnose variety infectious disease targeting usecases developing world initial target malaria difficulty task manual microscopy currently central highly imperfect tool malaria work field addition diagnosis algorithm performs specie identification quantitation parasite load parameter critical field application effectively rapid diagnostic test rdts</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.030001286130499245]</t>
+          <t>[0.06289698459515057]</t>
         </is>
       </c>
       <c r="F131" t="b">
@@ -4481,29 +4501,29 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>surveying threatened invasive specie obtain accurate population estimate important challenging task requires considerable investment time resource estimate existing ground based monitoring technique camera trap survey performed foot known resource intensive potentially inaccurate imprecise difficult validate recent development unmanned aerial vehicle uav artificial intelligence miniaturized thermal imaging represent new opportunity wildlife expert inexpensively survey relatively large area presented paper includes thermal image acquisition video processing pipeline perform object detection classification tracking wildlife forest open area tested thermal video ground based test flight footage able detect target wildlife located surveyed area flexible user readily define type object classify object characteristic considered classification</t>
+          <t>background aim study validate fetal medicine foundation fmf multiple logistic regression algorithm prediction risk preeclampsia australian population model predicts risk population rate preeclampsia variety demographic factor mean maternal arterial blood pressure map uterine artery uta plasma protein pappa shown predict earlyonset preeclampsia delivery prior week woman falsepositive rate method woman attended trimester screening royal prince alfred hospital body mass bmi map uta assessed addition factor traditionally ass aneuploidy including pappa mom delivery risk earlyonset delivery prior week preeclampsia late preeclampsia gestational hypertension calculated fmf risk algorithm result woman screened delivered locally woman perform preeclampsia screening available included woman live risk early preeclampsia calculated woman delivered week early preeclampsia prevalence early preeclampsia pregnancy risk generated maternal history map uta pappa detected early preeclampsia falsepositive rate respectively conclusion study fmf early preeclampsia algorithm effective australian population</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.07643821043479525]</t>
+          <t>[0.057017728488025284]</t>
         </is>
       </c>
       <c r="F132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -4512,22 +4532,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>number distribution free ranging giant panda essential formulation effective conservation strategy ideal method identify individual sex specie traditional bite size method bamboo fragment feces lack accuracy modern dna based estimation expensive demand fresh sample lack identifiable individual feature panda pelage apparent sexual dimorphism impede reliable estimation camera trap image propose innovative invasive technique identify sex specie footprint identification technique fit based pairwise comparison trail unbroken series footprint discriminant analysis ward clustering method collected footprint captive animal train algorithm animal model validation accuracy individual identification individual footprint fewer footprint trail accuracy sex discrimination single footprint trail cost effective method provides promising future monitoring wild panda population understanding dynamic especially useful monitoring reintroduced animal detachment gps collar collection protocol straightforward accessible citizen scientist conservation professional alike</t>
+          <t>identifying robust survival subgroup hepatocellular carcinoma hcc significantly improve patient care currently endeavor integrating multiomics explicitly predict hcc survival multiple patient cohort lacking gap present deep learning based model hcc robustly differentiates survival subpopulation patient cohort build based model hcc patient rnaseq mirnaseq methylation tcga predicts prognosis good alternative model genomics clinical considered based model provides optimal subgroup patient significant survival difference good model fitness cindex aggressive subtype associated frequent inactivation mutation higher expression stemness marker krt epcam tumor marker birc activated wnt akt signaling pathway validated multiomics model external datasets omics type lirijp cohort cindex nci cohort cindex chinese cohort cindex etabm cohort cindex hawaiian cohort cindex study employ deep learning identify multiomics feature linked differential survival hcc patient given robustness multiple cohort expect workflow useful predicting hcc prognosis prediction</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.0653506055462148]</t>
+          <t>[0.02174384900380812]</t>
         </is>
       </c>
       <c r="F133" t="b">
@@ -4543,22 +4563,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>increasing number surveillance camera indoor outdoor location grown demand intelligent detects abnormal event human action recognition highly reached topic vision abnormal behavior detection lately attracting research attention proposed order ensure human safety paper interested study main step composing video surveillance behavior representation behavior modeling technique related feature extraction description behavior representation reviewed classification method framework behavior modeling provided available datasets metric performance evaluation presented finally example existing video surveillance world described</t>
+          <t>present method predicting preterm infant inhospital mortality bayesian gaussian process classification combined feature extracted sensor measurement hour care low weight infant weight standard clinical feature calculated arrival neonatal intensive care unit time period hour evaluated achieved classification result area receiver operating characteristic curve excess result achieved clinical standard snapii snappeii score</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.015992715104115107]</t>
+          <t>[0.028089680262750445]</t>
         </is>
       </c>
       <c r="F134" t="b">
@@ -4579,24 +4599,24 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>visual surveillance dynamic scene especially human vehicle currently active research topic vision wide spectrum promising application including access control special area human identification distance crowd flux statistic congestion analysis detection anomalous behavior interactive surveillance multiple camera general processing framework visual surveillance dynamic scene includes following stage modeling environment detection motion classification moving object tracking understanding description behavior human identification fusion multiple camera review recent development general strategy stage finally analyze possible research direction occlusion handling combination twoand dimensional tracking combination motion analysis biometrics anomaly detection behavior prediction content based retrieval surveillance video behavior understanding natural language description fusion information multiple sensor remote surveillance</t>
+          <t>common barrier healthcare psychiatric condition stigma associated disorder perceived stigma prevents reporting symptom stigma particularly pervasive problem military service member preventing reporting symptom combatrelated condition like posttraumatic disorder ptsd research reporting service member anonymous assessment example service member report symptom ptsd anonymously answer postdeployment health assessment pdha symptom checklist compared official pdha identifiable linked military record investigate factor influence reporting psychological symptom service member transformative technology automated virtual human interview symptom virtual human interviewer allow simultaneous technique eliciting disclosure incompatible afford anonymity building rapport examined virtual human interviewer increase disclosure mental health symptom activeduty service member returned yearlong deployment afghanistan service member reported symptom conversation virtual human interviewer official pdha reported virtual human interviewer anonymized pdha second larger sample activeduty service member similar effect approached statistical significance respondent study shared virtual human interviewer anonymized pdhaeven condition control stigma ramification service member military recordsvirtual human interviewer build rapport provide superior option encourage reporting</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.014021641876944518]</t>
+          <t>[0.03313497853709257]</t>
         </is>
       </c>
       <c r="F135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4605,29 +4625,29 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[11, 9]</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>game improve social awareness letting experience difficult social situation learn experience assert moving strict realism social simulation offer technique role play offer possibility feedback reflection discus design game interpersonal skill training domain law enforcement game feature intelligent virtual agent trainee interact different scenario improve social awareness interacting virtual agent trainee experience behaviour influence course intervention outcome discus intend improve learning experience game including meta technique role play close describing current future implementation game</t>
+          <t>contribution provides review fundamental goal development future perspective driver assistance mobility fundamental desire mankind virtually society strives safe efficient mobility low ecological economic cost technical implementation significantly differs society depending culture degree potential evolutionary roadmap driver assistance discussed emerging based proprioceptive sensor ab esc review progress incented exteroceptive sensor radar video lidar ultimate goal automated cooperative traffic remains vision future intermediate step aim realized mitigate avoid collision selected driving situation research extends stateoftheart automated driving urban traffic cooperative driving addressing communication collaboration different vehicle cooperative vehicle operation driver machine intelligence step considered important interim period reliable unsupervised automated driving conceivable traffic situation available prospective evolution driver assistance stimulated technological societal market trend paper close view current research field</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.028854421246542597]</t>
+          <t>[0.026064753892843733, 0.017535356193679293]</t>
         </is>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -4636,22 +4656,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>paper envisions future autonomous agent foster support pro social behavior hybrid society human machine pro social behavior occurs agent perform costly action benefit act helping voluntarily donating charity providing information sharing resource pro social behavior discus question challenge purely utilitarian view human decision making contextualize role hybrid society condition mechanism lead society agent human pro social engineer autonomous entity agent robot lead altruistic cooperative behavior hybrid society propose social simulation game theory population dynamic study virtual environment robot agent human interact research constitute basis establishing foundation new field pro social computing aiming understanding predicting promoting pro sociality human artificial agent multiagent</t>
+          <t>discussion woman access digital information communication technology ict developing country inconclusive far claim woman technophobic men better user digital tool argue woman embrace digital communication article question empirical test analyze set latin american african country believed extensive empirical study field far result surprisingly consistent revealing reason fewer woman access ict direct result unfavorable condition respect employment education income controlling variable woman turn active user digital tool men turn alleged digital gender divide opportunity given woman affinity ict given digital technology tool improve living condition ict represent concrete tangible opportunity tackle longstanding challenge gender inequality developing country including access employment income education health service</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.036354133806639925]</t>
+          <t>[0.06206031465962414]</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -4667,29 +4687,29 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>jarrod completed bachelor degree science university newcastle australia researcher primarily interested aspect information security jarrod current research focused computational intelligence mining based financial fraud detection</t>
+          <t>intelligent tutoring program model learner psychological state provide individualized instruction developed diverse subject area algebra medicine law reading help learner acquire domainspecific cognitive metacognitive knowledge metaanalysis conducted research compared outcome student learning learning nonits learning environment metaanalysis examined effect size varied type type comparison treatment received learner type learning outcome knowledge learned procedural declarative factor search major bibliographic database effect size involving participant extracted analyzed associated greater achievement comparison teacherled largegroup instruction nonits computerbased instruction textbook workbook significant difference learning learning individualized human tutoring smallgroup instruction significant positive mean effect size regardless principal mean instruction supplement teacherled instruction integral component teacherled instruction aid homework significant positive effect size level education subject domain evaluated provided feedback modeled student misconception claim relatively effective tool learning consistent analysis potential publication bias</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.025573718331491434]</t>
+          <t>[0.0917851212145329]</t>
         </is>
       </c>
       <c r="F138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -4698,22 +4718,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>decade scientific research unmanned aerial vehicle uavs spectacularly led design multiple type aerial platform major challenge today development autonomously operating aerial agent capable completing mission independently human interaction extent visual sensing technique integrated control pipeline uavs order enhance navigation guidance skill aim article present comprehensive literature review vision based application uavs focusing mainly current development trend application sorted different category according research topic research group specifically vision based position attitude control pose estimation mapping obstacle detection target tracking identified component autonomous agent aerial platform reach greater level autonomy integrating technology onboard additionally article concept fusion multiple sensor highlighted overview challenge kanellakis</t>
+          <t>long research tradition focused information communication technology development ictd explore role artificial intelligence aid start technical review characteristic trait deep learning technology lead natural metaphor international development based empirical evidence study derive characteristic aid align technological trait isolation present plethora opportunity contribute international development especially attainment sustainable development goal sdgs combination create clear tension looming threat hegemonic intelligence indoctrination pushed global economy scale potential promise honor celebrate local diversity help flexible design conclude achieved active public policy dialogue international level effort national level especially developing country study provides terminology concept identify frame arising discussion</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.015649541037758716]</t>
+          <t>[0.03354863470039172]</t>
         </is>
       </c>
       <c r="F139" t="b">
@@ -4729,29 +4749,29 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>drone increasingly purpose recording footage inaccessible area delivering package rise drone usage introduces privacy security concern flying boundary drone collect public private space stored disseminated commercial personal drone regulation focusing privacy security fairly minimal united state inform privacy security guideline drone design regulation need understand user perception drone privacy security paper laboratory study participant interacted model drone elicit user perception privacy security issue drone present result discus implication work recommendation improve drone design regulation enhance individual privacy security</t>
+          <t>protecting world freshwater resource requires diagnosing threat broad range scale fromglobal local present worldwide synthesis jointly consider human biodiversity perspective water security spatial framework quantifies multiple stressor account downstream impact nearly world population exposed level threat water security massive investment water technology enables rich offset stressor level remedying underlying cause wealthy remain vulnerable similar lack precautionary investment jeopardizes biodiversity habitat associated continental discharge classified moderately highly threatened cumulative threat framework offer tool prioritizing policy management response crisis underscore necessity limiting threat source instead costly remediation symptom order assure global water security human freshwater biodiversity</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.018156917063604578]</t>
+          <t>[0.106540266005709]</t>
         </is>
       </c>
       <c r="F140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -4760,28 +4780,803 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>storytelling negative connotation science narrative format communication disregarded communicating science nonexpert audience narrative offer comprehension engagement nonexperts science information mass content biased narrative format narrative intrinsically persuasive offer science communicator tactic persuading resistant audience raise ethical consideration future intersection narrative research ongoing discussion science communication introduced</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>[0.010814255331965755]</t>
+        </is>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>[4]</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>reliable economic livelihood remain scarce developing world hampering effort study outcome design policy improve demonstrate accurate inexpensive scalable method estimating consumption expenditure asset wealth highresolution satellite imagery survey satellite african uganda malawi rwandawe convolutional neural network trained identify image feature explain variation locallevel economic outcome method requires publicly available transform effort track target poverty developing country demonstrates powerful machine learning technique applied setting limited training suggesting broad potential application scientific domain</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>[0.03744093202661936]</t>
+        </is>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>today standard tablet device posse equivalent processing power desktop mids nasa space shuttle programme storing cost today cost approximately human genome sequenced took decade cost today genome sequenced hour thousand dollar app appeared apple founder steve job enabled outside developer create application iphone today decade later app economy worth trillion revenue global pharmaceutical market whatsapp created sends message news celebrity gossip bad air quality travel fast globally forum termed period accelerating innovation science technology transformative change technology capability combined merging digital physical biological realm impact society fourth industrial revolution transforming social network scientific research radically reshaping agenda industry government international community way fourth industrial revolution reshaping healthcare mobility education worldwide reshape environmental community related institution work scientist tell facing urgent global environmental challenge despite international environmental agreement established environmental professional aware complacent policybased institutional approach worked ago necessary longer appear sufficient manage growing environmental challenge goal target sound ability deliver environmental outcome required need augmented result increasing great potential exploring science technology innovation driving fourth industrial revolution applied improving environmental natural resource management arrangement includes technology innovation able imagine technology starting transform look health surely harnessed help transform look environment example wearable tech measuring heart rate quality air breathe growing realization rapid advance science technology unintended negative consequence nature need recognized avoided new technology come need improved agile governance fourth industrial revolution fully sustainable industrial revolution effective enabling environment approach help government create smart safeguard protocol policy effective oversight recourse mechanism need place avoid unintended consequence ensure society nature benefit revolution example wearable sensor measure quality air breathe control access collected government civil society industry important role play help answer question develop principle usage guideline mean bringing stakeholder codevelop way science technology development needed need help better understand manage nature environment avoid creating negative unforeseen outcome focus developing policy principle run alongside interact acceleration programme promote innovation wider deployment science technology environmental management heart challenge practical term environmental sector helped harness science technology revolution reshaping wider economy society current arrangement enhanced better manage environmental sustain planet earth given increasing pressure nature face human activity time policy principle protocol developed environmental sector risk new technology individual society environment minimized opportunity maximized</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>[0.02888252594248058]</t>
+        </is>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+      <c r="G143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>robot technology task previously performed labor increasing concern future job wage analyze effect increase industrial robot usage local labor market model robot compete human labor production different task robot reduce employment wage local labor market effect robot estimated regressing change employment wage exposure robot local labor marketdefined national penetration robot industry local distribution employment industry approach estimate large robust negative effect robot employment wage commuting zone bolster evidence showing commuting zone exposed robot post era exhibit differential trend impact robot distinct impact import china mexico decline routine job offshoring type capital capital stock fact exposure robot weakly correlated variable according estimate robot thousand worker reduces employment population ratio percentage point wage percent</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>[0.06374580323427602]</t>
+        </is>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>[13, 8]</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>time finally come artificial intelligence period hype followed winter past today announcement technical breakthrough enabling superhuman performance machine follow rapid succession power realworld application ranging facial recognition language translator assistant like siri alexa barely notice consumer application company sector increasingly harnessing ai power operation embracing promise considerable benefit business economy contribution productivity growth innovation adopter starting reap benefit adoption relatively early stage uneven readiness varies widely company sector country time ai impact work profound occupation demand skill decline grow change work alongside everevolving increasingly capable machine scenario developed suggest job created lost automation transition disruptive occupation skill requirement shift significantly potential contribute tackling pressing societal challenge healthcare climate change humanitarian crisis introduce exacerbate social challenge misuse challenge related bias privacy cybersecurity given economic benefit policy maker business leader embrace place measure facilitate adoption soften disruptive transition accompany place new focus responsible briefing note draw ongoing research mckinsey global institute technology limitation impact concludes set issue policy maker business leader need address list main source note suggestion reading appear end</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>[12, 8]</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>[0.043373369830675676, 0.037242225753304825]</t>
+        </is>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>recent revival concern automation digitalisation result jobless future debate fuelled study europe arguing substantial job risk computerisation study follow occupationbased approach proposed frey osborne assume occupation single jobtasks automated technology argue lead overestimation job automatibility occupation labelled highrisk occupation contain substantial task hard automate paper serf purpose firstly estimate job automatibility job oecd country based taskbased approach contrast study account heterogeneity worker task occupation overall oecd country job automatable threat technological advance pronounced compared occupationbased approach heterogeneity oecd country instance automatable job korea corresponding austria difference country reflect general difference workplace organisation difference previous investment automation technology difference education worker country second purpose paper critically reflect recent study generate figure risk computerisation provide comprehensive discussion possible adjustment process firm worker automation digitalisation particular argue estimated job risk equated actual expected employment loss technological advance reason utilisation new technology slow process economic legal societal hurdle technological substitution place expected second new technology introduced worker adjust changing technological endowment switching task preventing technological unemployment technological change generates additional job demand new technology higher competitiveness main conclusion paper automation digitalisation unlikely destroy large number job low qualified worker bear brunt adjustment cost automatibility job higher compared highly qualified worker challenge future lie coping rising inequality ensuring sufficient retraining especially low qualified worker</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>[0.06942606639637662]</t>
+        </is>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>[9]</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>cellular network assumed enabler infrastructure provider ict industry offering variety service diverse requirement standardization cellular network expedited implies candidate technology adopted worthwhile provide insight candidate technique examine design philosophy article try highlight fundamental feature revolutionary technique era emerges initial intelligence nearly important aspect cellular network including radio resource management mobility management service provisioning management faced complicated configuration issue blossoming new service requirement insufficient cellular network lack complete functionality introduce fundamental concept discus relationship candidate technique cellular network specifically highlight opportunity challenge exploit achieve intelligent network demonstrate effectiveness manage orchestrate cellular network resource envision aiempowered cellular network acclaimed ict enabler reality</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>[9]</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>[0.0614683034796615]</t>
+        </is>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>[13, 9]</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>agenda enthusiastic great potential accelerating human progress brought information communication technology global time acknowledges dark innovation new challenge cybersecurity threat risk job privacy unleashed artificial intelligence military related cyber operation cyberattacks climate change increasing inequality power concentration challenge solved country acting isolation urgently require strengthened multilateralism time major technological shift necessary implement global transition required agenda resilient economic social development model technology exists new strategy needed generalize global level</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>[11, 9]</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>[0.06702657838650405, 0.028132012536679296]</t>
+        </is>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>[5]</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>advocate algorithmic technique like mining argue technique eliminate human bias decisionmaking process algorithm good work frequently imperfect way allow algorithm inherit prejudice prior decision maker simply reflect widespread bias persist society large mining discover surprisingly useful regularity preexisting pattern exclusion inequality unthinking reliance mining deny historically disadvantaged vulnerable group participation society worse resulting discrimination unintentional emergent property algorithm conscious choice programmer unusually hard identify source problem explain court</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>[0.019477331121901385]</t>
+        </is>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
           <t>[13]</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>sociology business ethic uncover grounding assumption term debate conversation ethical design possible forestalling alternative vision vision statement ethical opt language critic folding limited technologically deterministic expert driven view ethical mean work</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>globalization created new opportunity difficult problem community psychologist economic change created new job different area world promoted emergence sharing economy fostered huge disparity country political change polarization growth nationalist populist amplify divisiveness transformation notion citizenship identity technological change brought artificial intelligence revolution open opportunity danger job prospect diffusion social network able promoting political participation increasing political polarization finally aim community psychologist pursue help develop opportunity reduce problem emerge change discussed</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>[0.04491139691255396]</t>
+        </is>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>advance artificial intelligence robotics leading new industrial revolution paper present model necessary feature analyze implication inequality output assumption robot capital distinct traditional capital degree human labor capitalist skilled worker save analyze range variant reflect widely different view automation transform labor market main result surprisingly robust automation good growth bad equality benchmark model wage fall short run eventually rise eventually easily generation</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>[0.022727591032002205]</t>
+        </is>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>study present application artificial intelligence development sustainable transport smart city india huge gap demand supply public transport urban city india rapid urbanization india realize importance developing smart city improve quality life captivate foreign investment build superior quality infrastructure india majority indian city facing problem congestion safety inadequate public transport facility inappropriate information inadequate parking space environmental pollution sustainable transport eliminate problem providing safer faster comfortable efficient environment friendly help development smart city implementation intelligent transport urgent need develop intelligent transport indian city play role development sustainable transport main requirement adopt artificial intelligence development smart city india main objective article present major application intelligent transport development sustainable transport smart city study implementation intelligent transport development sustainable transport smart city india</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>[0.18847518821355433]</t>
+        </is>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>[9]</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ecologist variety tool collecting analyzing relatively tool facilitate ecological reasoning time simulation model basic mean organizing ecological knowledge way rapidly processed technology computerbased manipulation knowledge developed artificial intelligence area ecological science technology prove important include modelling simulation integration qualitative quantitative knowledge theoretical development natural resource management researcher manager basic applied ecology affected development aiderived technology added ecological toolkit</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>[0.03165782933832325]</t>
+        </is>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>machine learning algorithm tremendously power recent fully utilized ecology sustainable resource management domain wildlife reserve design forest management invasive specie spread thing domain common contain dynamic characterized spatially spreading process ssp requires parameter set precisely model dynamic spread rate directional bias element spreading present related work artificial intelligence machine learning ssp sustainability domain including forest wildfire prediction introduce novel approach learning ssp domain reinforcement learning agent cell landscape set action location point time includes spreading north south east west spreading approach inverts usual setup dynamic corresponding markov decision process mdp known function immed iate wildfire spread learn agent policy predictive model dynamic complex spatial process reward provided correctly classifying cell compared satellite related examine behavior algorithm problem value iteration policy iteration qlearning monte carlo tree search asynchronous advantage actorcritic compare gaussian processbased supervised learning approach discus relation approach manually constructed stateoftheart method forest wildfire modeling validate approach satellite image massive wildfire event northern alberta canada fort mcmurray richardson result learn predictive agentbased policy model spatial dynamic readily available satellite image method additional advantage term</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>[0.04545572418058592]</t>
+        </is>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+      <c r="G154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>ability transform vast complex ambiguous information insight potential reveal longheld secret help solve world enduring problem like powerful technology great care taken development deployment reap societal benefit need trust sure follow ethical principle moral value professional code social norm human follow scenario research educational effort carefully designed regulation place achieve goal international business machine corporation ibm actively engaged internally collaborator competitor global discussion ethical beneficial possible society</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>[0.0276689107109876]</t>
+        </is>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+      <c r="G155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>recent witnessed exponential growth automation power decision impact life society bring potential benefit reducing human bias speeding decisionmaking fraught risk increasing machine bias rendering decisionmaking opaque remote consideration fairness accountability transparency process fundamental omidyar network governance citizen engagement initiative started funding advocating open following snowden revelation summer included privacy surveillance reform effort realizing openness privacy closely related focused helping develop framework governing collection access storage usage right recently started looking impact release new light processing power access decision government corporate sector actor increasingly automated government algorithm screen immigrant allocate social service vital know interrogate hold accountable main aim increase individual control agency decision impact life ultimately society believe accountability transparency agenda benefit better understanding ultimately scrutinizing automated decisionmaking explore question partnered upturn map landscape public scrutiny automated decisionmaking term civil society nascent sector law regulation place help regulate study developed clear pave way textured practical understanding algorithmic transparency omidyar network explore issue companion paper released later hope report help civil society actor consider gain empowering public audience effectively scrutinize understand help govern automated decision hope start laying policy framework governance adding growing rich literature social economic impact decision finally hope report finding analysis help inform funders decision important growing field</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>[0.027881015029606736]</t>
+        </is>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>protected area effective tool reducing biodiversity loss current legislation distinguishes type marine protected area allowing different level resource extraction theory spatial conservation planning focused identifying notake reserve current approach zoning multiple type protected area result suboptimal plan term protecting biodiversity minimizing negative socioeconomic impact overcame limitation application multizone planning tool marxan zone design network type protected area context california marine life protection act produced zoning configuration entail mean value loss fishery compromising conservation goal spatial numerical optimization tool allows multiple zone outperforms tool identify zone marine reserve way overall impact fishing industry reduced second equitable impact different fishing sector achieved finally examined tradeoff representing biodiversity feature impacting fishery approach applicable marine terrestrial conservation planning delivers ecosystembased management outcome balance conservation industry objective</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>[0.09604065767381369]</t>
+        </is>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>national oceanic atmospheric administration noaa integrated coral observing network icon operational work closely government international environmental partner involved coral reef research icon program pioneered artificial intelligence technique ass near realtime stream environment sensor network seakeys network florida australia institute marine science weather network noaa coral reef ecosystem division network pacific integrated coral observing network icon station caribbean innovative approach coral monitoring station deployment icon program recently pioneered technique near realtime integration satellite situ radar source purpose ecological forecasting event coral bleaching coral spawning upwelling marine behavioral physical oceanographic event icon program ushered pulseamplitude modulating fluorometry measure near realtime physiological recording response environmental coral bleaching providing better ecological forecasting capability artificial intelligence integrative technique herewith technique report new coral calcification instrumentation augmenting icon network sensor array</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>[0.0407107363888122]</t>
+        </is>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>marine cabled allow nondestructive sampling specie frequency duration attained lack appropriate method automatically process video imagery limit technology purpose ecosystem monitoring automation prerequisite deal huge quantity video footage captured camera transform device true autonomous sensor study developed novel methodology based genetic programming contentbased image analysis aim capture temporal dynamic fish abundance processed image acquired challenging realworld coastal scenario obseaemso testingsite image collected min frequency continuously night highly variable environmental condition allowed test effectiveness approach changing light radiation water turbidity background confusion biofouling growth camera housing automated recognition result highly correlated manual count highly reliable track fish variation different hourly daily monthly time scale addition methodology easily transferred cabled</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>[0.04617649895773118]</t>
+        </is>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>having accurate detailed uptodate information location behavior animal wild improve ability study conserve ecosystem investigate ability automatically accurately inexpensively collect help catalyze transformation field ecology wildlife biology zoology conservation biology animal behavior big science motionsensor camera trap enable collecting wildlife picture inexpensively unobtrusively frequently extracting information picture remains expensive timeconsuming manual task demonstrate information automatically extracted deep learning cuttingedge type artificial intelligence train deep convolutional neural network identify count behavior specie millionimage snapshot serengeti dataset deep neural network automatically identify animal accuracy expect number improve rapidly come importantly classifies image confident automate animal identification performing accuracy crowdsourced team human volunteer saving hwk human labeling effort millionimage dataset efficiency gain highlight importance deep neural network automate extraction cameratrap image reducing roadblock widely technology result suggest deep learning enable inexpensive unobtrusive highvolume realtime collection wealth information vast number animal wild</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>[0.03796788836639916]</t>
+        </is>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>specie ecosystem worldwide continue decline disappear spite decade investment conservation effort systematic conservation planning scp field study designed improve conservation program identifying land configuration protected efficiently sustain biodiversity despite contributing specie persistence landscape scp criticized replacing sitebased conservation plan consider social context contrast land science l emerging field explores process landuse landcover change integrates social process conservation analysis suggest incorporating insight l social process livelihood adaptation agricultural intensification scp enhance legitimacy conservation plan reducing gap conservation planning implementation represents necessary step scp reinvent decisionsupport tool help reconcile longstanding divide landscapelevel specie conservation social need</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>[0.09876391070825966]</t>
+        </is>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>identifying boundary specie niche observational environmental common problem ecology conservation biology variety technique developed applied model niche predict distribution examine performance pattern recognition method ecological niche model enms particularly oneclass pattern recognition flexible seldom methodology modeling ecological niche distribution presenceonly development oneclass method perform comparably twoclass method presenceabsence remove modeling decision sampling pseudoabsences background point absence point unavailable studied method oneclass classification method twoclass classification common primarily pattern recognition common specie distribution ecological niche modeling set mountain plant specie presenceabsence available assessed accuracy standard metric compared tradeoff omission commission error classification group effect prevalence spatial autocorrelation accuracy oneclass model fit presenceonly comparable twoclass model fit presenceabsence performance evaluated measure weighting omission commission error equally oneclass model superior reducing omission error yielding higher sensitivity twoclasses model superior reducing commission error yielding higher specificity method spatial autocorrelation influential prevalence low result differ previous effort evaluate alternative modelling approach build enm particularly noteworthy exhaustively sampled population minimizing false absence record accurate transferable model specie ecological niche distribution needed advance ecological research crucial effective environmental planning conservation approach studied good potential future modeling study study provides introduction promising method ecological modeling inherited pattern recognition discipline</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>[0.029764974494070468]</t>
+        </is>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>apply recently developed spatial biosurveillance technique law enforcement domain goal helping local police department rapidly detect respond better predict prevent emerging spatial pattern crime background geographic surveillance technique increasingly important law enforcement crime prevention new method mapping crime automatically detecting crime hot spot electronic report situational awareness enabled rapid police response emerging crime area additionally recent work crime forecasting enabled law enforcement official predict prevent rise crime variety leading indicator current crime detection forecasting method require coarse aggregation month square mile computational consideration relatively number crime limitation reduce spatial temporal precision department pinpoint cluster crime ability rapidly respond cluster propose spatial scan statistic method originally developed biosurveillance domain finer aggregation efficiently search emerging spacetime cluster varying size duration method detection cluster violent crime prediction cluster detecting cluster leading indicator crime</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>[0.052578151668986016]</t>
+        </is>
+      </c>
+      <c r="F163" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>bullying widespread european school despite multiple intervention strategy having proposed present study investigates effect novel virtual learning strategy fearnot tackle bullying german sample approach intended primarily victim increase coping skill heighten empathy defence victim noninvolved bystander paper focus defender role applying quantitative qualitative methodology present study fearnot helped noninvolved child defender german subsample effect subsample german new defender child initially uninvolved nominated defender peer intervention period significantly popular baseline cognitive empathy theory mind virtual victim compared permanently noninvolved pupil gender interacts defender effect affective empathy emotional contagion particularly associated new defender status girl finding discussed relation previous research antibullying intervention strategy cultural difference bullying prevalence rate intervention outcome</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>[0.05955765983101318]</t>
+        </is>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>understanding video event translation lowlevel content video sequence level semantic concept research topic received recent important application work include smart surveillance semantic video database indexing teractive technology applied video domain including airport terminal parking lot trac subway station aerial surveillance sign language work survey main component event understanding process abstraction event modeling abstraction process molding informative unit input event model event modeling devoted describing event formally enabling recognition event occur video sequence event modeling decomposed category pattern recognition method state event model semantic event model survey discus proposed taxonomy literature oer unifying terminology discus popular abstraction scheme motion history image event modeling formalism hidden markov model video event understanding extensive example literature finally consider applica tion domain video event understanding light proposed taxonomy propose future direction research eld</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>[0.017557784136226346]</t>
+        </is>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+      <c r="G165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>rtificial intelligence application profoundly impact society low middleincome country lmics positively negatively emerging class technology technology application built fuelled increasing availability computational power improved connectivity application offer intriguing possibility promoting economic growth tackling wide variety longstanding problem global south resulting disruptive impact massive revolutionary photo annie spratt unsplash artificial intelligence human development executive summary time care vigilance required mitigate risk identify respond unintended harmful consequence approach critical exacerbate inequality social instability paper proposes proactive research agenda ethical equitable application global south undergirding agenda broad overview technology associated opportunity challenge present area science devoted developing taught learn decision prediction specific context application perform wide range intelligent behaviour optimization supply chain pattern recognition detection facial recognition prediction hypothesis testing predicting disease outbreak natural language processing machine translation technology poised significant impact society leverage existing infrastructure internet large datasets dramatically reduce cost activity new old good bad large scale potential benefit developing country health care play crucial role augmenting health care capacity filling gap human expertise improving productivity enhancing disease surveillance example ngo brazil partnered startup develop predict upcoming incidence disease delivery government service information group world exploring way help country improve egovernment effort automating complex assessment account range technical organizational social factor example machine learning developed help predict mass grave location mexican drug cartel victim agriculture employed address threat compromise successful harvest example support water management palestine drought monitoring uganda education educational offering industrial onesizefits delivery model quality personalized learning opportunity scale example effort india employing develop intelligent tutoring economy business offer potential higher productivity offer mean growth new business development innovation optimization economic building block example company working extend access standard financial service african currently access potential risk fairness bias accountability potential reflect exacerbate societal bias produce result disadvantage individual group especially marginalized example program ass risk reoffense individual criminal justice flagged black defendant risk nearly twice white defendant surveillance loss privacy algorithm supercharge surveillance threaten privacy example aipowered facial recognition software closedcircuit capacity track individual urban landscape concerning socially politically privacy fundamental right freedom expression association job tax revenue loss automation growing machine learning nearly sector economy widespread automation extend manufacturing impact higherskilled knowledgebased role job partly entirely automated reducing need human worker counterargument shift nature scope work job instance robot complementing human labour focus higherskilled higherpaid task executive summary undermining democracy political world increasingly connected reliant free flow information misinformation genuine growing threat stability democracy example piggybacking highly personal collected social campaign application facilitate efficient propaganda behavioural manipulation campaign presidential election notorious example role targeted misinformation facebook future global south little doubt technology breathtaking advance extraordinary wealth created social institutional structure transformed ask life improved harmed technology assertion paper continue blindly forward expect inequality alongside economic disruption social unrest political instability technologically disadvantaged faring worst prediction stem interweaving element nature application projection impact application current global context worrisome dynamic current set institution culture shape evolution technology turn technology shape institution culture important element context characterized called divide gap ability design deploy application furthermore digital infrastructure analogue regulation foundation required ethical equitable application technology country global south largely absent salient power asymmetry persist situation important address challenge posed avoid mitigate adverse outcome enabling developing country advantage ai positive potential promise alluring potential great avoid future question ready recommendation based conclusion paper broader literature identified area action taken policy regulation inclusive ethical application infrastructure skill area paper series recommendation research necessary concrete progress note intended comprehensive list overview pressing intervention policy regulatory structure foster design policy regulation enable inclusive rightsbased conduct baseline research prevalence application policy country global south despite pocket activity global south systematic overview level activity baseline collection include set policy regulation application existing open datasets skill level research conducted annual minimally biannual basis support continued activity policy development research agenda learn effective regulatory model document ass regulatory model developed deal emergence new aidriven activity predictive policing autonomous vehicle chatbots determine potential risk application adequately addressed existing regulation existing regulation need adapted new regulation developed identify regulatory response given risk level appropriate setting low institutional capacity lesson learned global north useful critical directly import institutional regulatory approach global south context institutional cultural differ track impact employment work conduct social economic policy research understand effect employment nature work labour market extent aienabled automation altering employment pattern transforming workplace alternative model income resource distribution education job retraining different context executive summary explore approach addressing liability accountability redress decisionmaking design regulatory framework determine liability accountability decisionmaking erroneous biased discriminatory establish mechanism redress measure include policy stipulate transparency automated decisionmaking evaluative procedure determine competency certification engage task requiring degree skill training need action particularly urgent decisionmaking affect wellbeing freedom involve force incarceration research critical uncover document accountability redress effective context study impact human right broad level recognizes offline right apply online testifying relevance analog right digitally mediated environment professional body specifically consideration human right context design operation tailoring impact assessment risk help encourage development program incorporate technology way respect promote human right including privacy equality freedom expression application catalyze development inclusive ethical application support development deployment innovative application social good invest developing deploying application education health environment food security ensure application ethical inclusive regulatory innovation important draw inspiration example world application require homegrown solution effective research social impact innovation research needed better understand application work work context need know benefit application excluded harmed special emphasis placed exploring differential impact group particularly resulting gender social economic status race research firstorder effect efficiency accuracy diagnosis include broader social effect new methodology impact assessment evaluation required test monitor bias application inform decisionmaking affect human wellbeing medical diagnosis providing judge assessment potential recidivism tested monitored bias error different context community release continuously explore model participatory design conduct research practice support development inclusive application technique effective truly participatory process engage diverse population design deployment application context practice counter design learned bias relevant marginalized community stakeholder field release diversity participation design development action research deepen understanding effectively equitably scale proven application research process scaling application costeffective equitable manner vertically encompass additional functionality horizontally expand new location critical extending benefit application successful transfer application context requires understanding application worked particular context appreciation application need altered order succeed new environment particular challenge related include scaling scope existing datasets developing mean rapidly generate datasets executive summary infrastructure skill build infrastructure skill inclusive ethical support program build expertise government promote expertise branch level government including regulatory policymaking enforcement entity potentially new advisory body foster local capacity lead design development deployment application activity include supporting growth centre excellence global south order engage local development research provide evidencebased input shaping national policy regulatory decision building bridge technology expert lowincome marginalized community global south supporting southsouth collaboration develop test costeffective approach build relevant skill particularly woman marginalized population develop support program focus developing capacity woman marginalized population engage different stage design application technology research bolster activity exploration lowcost model developing technology skill producing testing effective curriculum pedagogy expand access computing resource possible research tool training datasets need freely available support development sharing diverse inclusive datasets necessary application context study benefit risk open conduct research short mediumterm risk benefit openness sharing resource datasets possible research connect supplyside question best provide open access algorithm tool datasets deepening understanding engagement necessary ensure open resource available reuse adaptation diverse population wellskilled wellresourced special attention paid issue balancing sharing datasets safeguarding privacy</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
         <is>
           <t>[17]</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>[0.007953663654750727]</t>
-        </is>
-      </c>
-      <c r="F141" t="b">
-        <v>0</v>
-      </c>
-      <c r="G141" t="b">
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>[0.029792032294228447]</t>
+        </is>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+      <c r="G166" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Project_python/out/results4.xlsx
+++ b/Project_python/out/results4.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.014840159163238213]</t>
+          <t>[0.017432467615872395]</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -517,7 +517,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.050499359328172184]</t>
+          <t>[0.044403652986481974]</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -548,7 +548,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.024337665768051034, 0.01714352098382592]</t>
+          <t>[0.024536868481554435, 0.015611969252747153]</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -579,7 +579,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.05241817128926408]</t>
+          <t>[0.04833103438705824]</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -610,7 +610,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.053077686025112016]</t>
+          <t>[0.04932457982596433]</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -641,7 +641,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.029409252575383866]</t>
+          <t>[0.025772738900568224]</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -672,7 +672,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.06537741687979529]</t>
+          <t>[0.05917762990122566]</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -703,7 +703,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.07584364532836234]</t>
+          <t>[0.07702890905447025]</t>
         </is>
       </c>
       <c r="F9" t="b">
@@ -734,7 +734,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.03779795845399963]</t>
+          <t>[0.037373281837366316]</t>
         </is>
       </c>
       <c r="F10" t="b">
@@ -765,7 +765,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.08848636224196181]</t>
+          <t>[0.08214139872170138]</t>
         </is>
       </c>
       <c r="F11" t="b">
@@ -781,29 +781,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>inadequacy spatial soil information limiting factor making evidence based decision improve food security land management developing country digital soil mapping dsm technique applied world improve availability usability soil africa particularly tanzania scale necessary farm management decision kilombero valley identified intensified rice production valley lack detailed todate soil information decision making overall objective study develop predictive soil map portion kilombero valley dsm technique widely decision tree algorithm source digital elevation model dems evaluated predictive ability firstly numerical classification performed collected soil profile arrive soil taxon secondly derived taxon spatially predicted mapped following scorpan framework random forest machine learning algorithm datasets train model derived legacy soil map rapideye satellite image dems arc srtm aster worlddem separate predictive model built dem source mapping showed sensitive training set sampling result showed prediction soil taxon arc srtm worddem identical suggest algorithm freely available srtm dem combination mapping soil kilombero valley combination tested applied area relatively flat terrain like kilombero valley</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>[2]</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>inadequacy spatial soil information limiting factor making evidence based decision improve food security land management developing country digital soil mapping dsm technique applied world improve availability usability soil africa particularly tanzania scale necessary farm management decision kilombero valley identified intensified rice production valley lack detailed todate soil information decision making overall objective study develop predictive soil map portion kilombero valley dsm technique widely decision tree algorithm source digital elevation model dems evaluated predictive ability firstly numerical classification performed collected soil profile arrive soil taxon secondly derived taxon spatially predicted mapped following scorpan framework random forest machine learning algorithm datasets train model derived legacy soil map rapideye satellite image dems arc srtm aster worlddem separate predictive model built dem source mapping showed sensitive training set sampling result showed prediction soil taxon arc srtm worddem identical suggest algorithm freely available srtm dem combination mapping soil kilombero valley combination tested applied area relatively flat terrain like kilombero valley</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[2]</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.032652133822185035]</t>
+          <t>[0.040706005820995796]</t>
         </is>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.04848807105428687]</t>
+          <t>[0.045565301537595845]</t>
         </is>
       </c>
       <c r="F13" t="b">
@@ -858,7 +858,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.049266701759172915]</t>
+          <t>[0.048014534869808514]</t>
         </is>
       </c>
       <c r="F14" t="b">
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.014496618818782865, 0.006923125176686368]</t>
+          <t>[0.015323597332810666, 0.007830188437992823]</t>
         </is>
       </c>
       <c r="F15" t="b">
@@ -920,7 +920,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.06769635823523502]</t>
+          <t>[0.06992478266892325]</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -951,7 +951,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.0490583243726606]</t>
+          <t>[0.04308191972103614]</t>
         </is>
       </c>
       <c r="F17" t="b">
@@ -982,7 +982,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.028173568320166646]</t>
+          <t>[0.02962054972952076]</t>
         </is>
       </c>
       <c r="F18" t="b">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.027475159529002223]</t>
+          <t>[0.02371407618005735]</t>
         </is>
       </c>
       <c r="F19" t="b">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.02831276014701735, 0.025679766174111395]</t>
+          <t>[0.03876793373657218, 0.031187898744569887]</t>
         </is>
       </c>
       <c r="F20" t="b">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.01148436637375802]</t>
+          <t>[0.012500736368207714]</t>
         </is>
       </c>
       <c r="F21" t="b">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.020826378310266253]</t>
+          <t>[0.017978130719107147]</t>
         </is>
       </c>
       <c r="F22" t="b">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.0414264965591381]</t>
+          <t>[0.03632008938380074]</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.02146579763991265]</t>
+          <t>[0.017584882717591416]</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.018579064871444676]</t>
+          <t>[0.017051619815027445]</t>
         </is>
       </c>
       <c r="F25" t="b">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.035002088350965556, 0.015736387071165807]</t>
+          <t>[0.0309614566552367, 0.01932710463698573]</t>
         </is>
       </c>
       <c r="F26" t="b">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.03257398061732888, 0.013418841821290573]</t>
+          <t>[0.02894130451873084, 0.012583833086087228]</t>
         </is>
       </c>
       <c r="F27" t="b">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.03604293018675868]</t>
+          <t>[0.03772188784325417]</t>
         </is>
       </c>
       <c r="F28" t="b">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.12027698426761704]</t>
+          <t>[0.12383055781358127]</t>
         </is>
       </c>
       <c r="F29" t="b">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.014685962824674914]</t>
+          <t>[0.012407766384202844]</t>
         </is>
       </c>
       <c r="F30" t="b">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.023205800844013375, 0.0223230103586995]</t>
+          <t>[0.023094785434276965, 0.021985413720138118]</t>
         </is>
       </c>
       <c r="F31" t="b">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.043620359992709766]</t>
+          <t>[0.03799026245323546]</t>
         </is>
       </c>
       <c r="F32" t="b">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.020942427129065508]</t>
+          <t>[0.019176909653237144]</t>
         </is>
       </c>
       <c r="F33" t="b">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.04299031318027899]</t>
+          <t>[0.044391988487854195]</t>
         </is>
       </c>
       <c r="F34" t="b">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.0547480042546068]</t>
+          <t>[0.05735350575610435]</t>
         </is>
       </c>
       <c r="F35" t="b">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1540,14 +1540,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.030914050355180342]</t>
+          <t>[0.02934662774507949]</t>
         </is>
       </c>
       <c r="F36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.023659679990707783]</t>
+          <t>[0.0276601655942839]</t>
         </is>
       </c>
       <c r="F37" t="b">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.01709293740717098]</t>
+          <t>[0.016732464004754193]</t>
         </is>
       </c>
       <c r="F38" t="b">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.03159476424391857]</t>
+          <t>[0.030980020677132545]</t>
         </is>
       </c>
       <c r="F39" t="b">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.015911631359791234]</t>
+          <t>[0.017730827140666733]</t>
         </is>
       </c>
       <c r="F40" t="b">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.029395893489859513]</t>
+          <t>[0.030878906810104405]</t>
         </is>
       </c>
       <c r="F41" t="b">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.02966241513432021]</t>
+          <t>[0.029623437339116907]</t>
         </is>
       </c>
       <c r="F42" t="b">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.04371992474434013]</t>
+          <t>[0.04480220132324833]</t>
         </is>
       </c>
       <c r="F43" t="b">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.02458927101816065]</t>
+          <t>[0.022385449036099375]</t>
         </is>
       </c>
       <c r="F44" t="b">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.012725215796150447]</t>
+          <t>[0.012377803764226149]</t>
         </is>
       </c>
       <c r="F45" t="b">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[13, 15]</t>
+          <t>[15, 13]</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.020207766455099127, 0.016525771924433184]</t>
+          <t>[0.022243809897753278, 0.01964642686971334]</t>
         </is>
       </c>
       <c r="F46" t="b">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.020084267013013014]</t>
+          <t>[0.019670953936590015]</t>
         </is>
       </c>
       <c r="F47" t="b">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.01517421121342288, 0.00993757331054094]</t>
+          <t>[0.015117169348878419, 0.011763728177526725]</t>
         </is>
       </c>
       <c r="F48" t="b">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.02260173991616746]</t>
+          <t>[0.01952576587753562]</t>
         </is>
       </c>
       <c r="F49" t="b">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.05915268074473552]</t>
+          <t>[0.05198212705917045]</t>
         </is>
       </c>
       <c r="F50" t="b">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.03414808908590349]</t>
+          <t>[0.030628624227837287]</t>
         </is>
       </c>
       <c r="F51" t="b">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.1141502436478766]</t>
+          <t>[0.10949024046393108]</t>
         </is>
       </c>
       <c r="F52" t="b">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.046121864717057835]</t>
+          <t>[0.04438651542455275]</t>
         </is>
       </c>
       <c r="F53" t="b">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.04295698666284836]</t>
+          <t>[0.0370854256985697]</t>
         </is>
       </c>
       <c r="F54" t="b">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.04063391895116209]</t>
+          <t>[0.037521272059902265]</t>
         </is>
       </c>
       <c r="F55" t="b">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.023908267178314808]</t>
+          <t>[0.022554075624907053]</t>
         </is>
       </c>
       <c r="F56" t="b">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.01821058879897786]</t>
+          <t>[0.017484006881696032]</t>
         </is>
       </c>
       <c r="F57" t="b">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.03279859249823352]</t>
+          <t>[0.030185192025332507]</t>
         </is>
       </c>
       <c r="F58" t="b">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.028641308673402612]</t>
+          <t>[0.02821476451125166]</t>
         </is>
       </c>
       <c r="F59" t="b">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.016458858616695122]</t>
+          <t>[0.014702574420562648]</t>
         </is>
       </c>
       <c r="F60" t="b">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.09655680807321065]</t>
+          <t>[0.09658286070384246]</t>
         </is>
       </c>
       <c r="F61" t="b">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2346,14 +2346,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.0330533278357935]</t>
+          <t>[0.032961232665122256]</t>
         </is>
       </c>
       <c r="F62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[0.027927403260642147]</t>
+          <t>[0.026332242043221852]</t>
         </is>
       </c>
       <c r="F63" t="b">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.03298668014746741]</t>
+          <t>[0.03255597927562634]</t>
         </is>
       </c>
       <c r="F64" t="b">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.05594175619879136]</t>
+          <t>[0.05764494502179925]</t>
         </is>
       </c>
       <c r="F65" t="b">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.023130886066589737]</t>
+          <t>[0.017621119048147928]</t>
         </is>
       </c>
       <c r="F66" t="b">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.03464811973839797]</t>
+          <t>[0.03659541327304097]</t>
         </is>
       </c>
       <c r="F67" t="b">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.06671547923065352]</t>
+          <t>[0.09404905795654304]</t>
         </is>
       </c>
       <c r="F68" t="b">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.040786811805082875]</t>
+          <t>[0.04058786196749706]</t>
         </is>
       </c>
       <c r="F69" t="b">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.06158680748401092]</t>
+          <t>[0.08441489805392428]</t>
         </is>
       </c>
       <c r="F70" t="b">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.03306372605632121, 0.019345528864378018]</t>
+          <t>[0.03880385956173158, 0.01986489083894662]</t>
         </is>
       </c>
       <c r="F71" t="b">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.16486011172498352]</t>
+          <t>[0.16510579343980775]</t>
         </is>
       </c>
       <c r="F72" t="b">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.020182319522830502]</t>
+          <t>[0.01881610073201019]</t>
         </is>
       </c>
       <c r="F73" t="b">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.024376913480900396]</t>
+          <t>[0.021146521631351004]</t>
         </is>
       </c>
       <c r="F74" t="b">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.05397132134629108, 0.01883889680933482]</t>
+          <t>[0.04635685053197555, 0.0181426351237796]</t>
         </is>
       </c>
       <c r="F75" t="b">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.020310597982571905]</t>
+          <t>[0.020854138931078008]</t>
         </is>
       </c>
       <c r="F76" t="b">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.056544135834655625, 0.02220122392366542]</t>
+          <t>[0.048612828020562424, 0.022321241697399595]</t>
         </is>
       </c>
       <c r="F77" t="b">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.018049169195088463]</t>
+          <t>[0.012797368958357487]</t>
         </is>
       </c>
       <c r="F78" t="b">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.04625217022460014]</t>
+          <t>[0.04686424172515893]</t>
         </is>
       </c>
       <c r="F79" t="b">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.04388113665958206]</t>
+          <t>[0.04339757490094997]</t>
         </is>
       </c>
       <c r="F80" t="b">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.11498477401738215, 0.021921868524742323]</t>
+          <t>[0.10706345118749275, 0.01769401646453737]</t>
         </is>
       </c>
       <c r="F81" t="b">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.13843401547484194, 0.03355810747465617]</t>
+          <t>[0.14030418908329478, 0.03215802437884054]</t>
         </is>
       </c>
       <c r="F82" t="b">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.027459173808269375, 0.018031417929509835]</t>
+          <t>[0.03208145317034763, 0.017905031648795755]</t>
         </is>
       </c>
       <c r="F83" t="b">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[8, 14]</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.039242434725776855, 0.02154368926575802]</t>
+          <t>[0.032694261021337434, 0.018308401127786204]</t>
         </is>
       </c>
       <c r="F84" t="b">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.031488134036661244]</t>
+          <t>[0.028895844084202597]</t>
         </is>
       </c>
       <c r="F85" t="b">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.019010520408641637]</t>
+          <t>[0.0188709140657014]</t>
         </is>
       </c>
       <c r="F86" t="b">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.02736101425502329]</t>
+          <t>[0.021825760289900187]</t>
         </is>
       </c>
       <c r="F87" t="b">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.10682922789785951]</t>
+          <t>[0.09864197744635671]</t>
         </is>
       </c>
       <c r="F88" t="b">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.02049497832073982]</t>
+          <t>[0.02129701153948667]</t>
         </is>
       </c>
       <c r="F89" t="b">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.04771776805245892]</t>
+          <t>[0.04600140856667701]</t>
         </is>
       </c>
       <c r="F90" t="b">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.17924428790117666]</t>
+          <t>[0.16849656838348867]</t>
         </is>
       </c>
       <c r="F91" t="b">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.013058254822632153]</t>
+          <t>[0.011323338188345317]</t>
         </is>
       </c>
       <c r="F92" t="b">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.020328983685991273]</t>
+          <t>[0.018802045231517676]</t>
         </is>
       </c>
       <c r="F93" t="b">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.057600277945634534]</t>
+          <t>[0.05466651223522335]</t>
         </is>
       </c>
       <c r="F94" t="b">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[7]</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.032756840998634705]</t>
+          <t>[0.031845023844991896]</t>
         </is>
       </c>
       <c r="F95" t="b">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.04977162021888769]</t>
+          <t>[0.05198533918502164]</t>
         </is>
       </c>
       <c r="F96" t="b">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.12703820898379764]</t>
+          <t>[0.1778951004284803]</t>
         </is>
       </c>
       <c r="F97" t="b">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.019578534781652546]</t>
+          <t>[0.017638119909590785]</t>
         </is>
       </c>
       <c r="F98" t="b">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.020121858965089934]</t>
+          <t>[0.02049733697958011]</t>
         </is>
       </c>
       <c r="F99" t="b">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[0.02664051142220302]</t>
+          <t>[0.022976748227021143]</t>
         </is>
       </c>
       <c r="F100" t="b">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.2022133893523552]</t>
+          <t>[0.1679835725973545]</t>
         </is>
       </c>
       <c r="F101" t="b">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.1449261581977192]</t>
+          <t>[0.14731334615631708]</t>
         </is>
       </c>
       <c r="F102" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.012632167904844522]</t>
+          <t>[0.013679479562859287]</t>
         </is>
       </c>
       <c r="F103" t="b">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.06120174274600509]</t>
+          <t>[0.0701709149255768]</t>
         </is>
       </c>
       <c r="F104" t="b">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.049149041739874375]</t>
+          <t>[0.054690816067750544]</t>
         </is>
       </c>
       <c r="F105" t="b">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.07382034621909508]</t>
+          <t>[0.08263766949414293]</t>
         </is>
       </c>
       <c r="F106" t="b">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.02256390152403482]</t>
+          <t>[0.02014786534439492]</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.07889421035699383]</t>
+          <t>[0.08149224467038735]</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.08045432621881597]</t>
+          <t>[0.0912149768994564]</t>
         </is>
       </c>
       <c r="F109" t="b">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.06345525115430277]</t>
+          <t>[0.07204662485197337]</t>
         </is>
       </c>
       <c r="F110" t="b">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.041636581156533306]</t>
+          <t>[0.05683714699367397]</t>
         </is>
       </c>
       <c r="F111" t="b">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.04539734320613641]</t>
+          <t>[0.05499771678086548]</t>
         </is>
       </c>
       <c r="F112" t="b">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[0.01857391820223695]</t>
+          <t>[0.01950586998049851]</t>
         </is>
       </c>
       <c r="F113" t="b">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.07536883401494748]</t>
+          <t>[0.10205348351845793]</t>
         </is>
       </c>
       <c r="F114" t="b">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.09481178964176411]</t>
+          <t>[0.13272651151150994]</t>
         </is>
       </c>
       <c r="F115" t="b">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.131532449668759]</t>
+          <t>[0.1914941921380233]</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.05865300264564184]</t>
+          <t>[0.07614146198737799]</t>
         </is>
       </c>
       <c r="F117" t="b">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.030001286130499245]</t>
+          <t>[0.03620704464483753]</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.07643821043479525]</t>
+          <t>[0.10224662584911806]</t>
         </is>
       </c>
       <c r="F119" t="b">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.0653506055462148]</t>
+          <t>[0.07416477606674783]</t>
         </is>
       </c>
       <c r="F120" t="b">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.015992715104115107]</t>
+          <t>[0.01705592513300936]</t>
         </is>
       </c>
       <c r="F121" t="b">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.014021641876944518]</t>
+          <t>[0.015068961546304684]</t>
         </is>
       </c>
       <c r="F122" t="b">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.028854421246542597]</t>
+          <t>[0.026201749756025152]</t>
         </is>
       </c>
       <c r="F123" t="b">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.036354133806639925]</t>
+          <t>[0.031319007868463825]</t>
         </is>
       </c>
       <c r="F124" t="b">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.015649541037758716]</t>
+          <t>[0.013805884991616122]</t>
         </is>
       </c>
       <c r="F125" t="b">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4330,14 +4330,14 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.018156917063604578]</t>
+          <t>[0.018462242637977265]</t>
         </is>
       </c>
       <c r="F126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.028071992191322653]</t>
+          <t>[0.029418846192570496]</t>
         </is>
       </c>
       <c r="F127" t="b">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.05749150639930431]</t>
+          <t>[0.05904190506083551]</t>
         </is>
       </c>
       <c r="F128" t="b">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.011657684249587385]</t>
+          <t>[0.011509996216495556]</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.06423754425415147]</t>
+          <t>[0.06357570449739082]</t>
         </is>
       </c>
       <c r="F130" t="b">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.06289698459515057]</t>
+          <t>[0.058142459744791805]</t>
         </is>
       </c>
       <c r="F131" t="b">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.057017728488025284]</t>
+          <t>[0.056422057759577794]</t>
         </is>
       </c>
       <c r="F132" t="b">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.02174384900380812]</t>
+          <t>[0.018997390163875215]</t>
         </is>
       </c>
       <c r="F133" t="b">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.028089680262750445]</t>
+          <t>[0.029186057207649614]</t>
         </is>
       </c>
       <c r="F134" t="b">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.03313497853709257]</t>
+          <t>[0.03388656621707643]</t>
         </is>
       </c>
       <c r="F135" t="b">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.026064753892843733, 0.017535356193679293]</t>
+          <t>[0.02529416260467885, 0.013798905863067697]</t>
         </is>
       </c>
       <c r="F136" t="b">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.06206031465962414]</t>
+          <t>[0.06052226969484571]</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.0917851212145329]</t>
+          <t>[0.08254326675001954]</t>
         </is>
       </c>
       <c r="F138" t="b">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.03354863470039172]</t>
+          <t>[0.03205765645658193]</t>
         </is>
       </c>
       <c r="F139" t="b">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.106540266005709]</t>
+          <t>[0.10880704079452413]</t>
         </is>
       </c>
       <c r="F140" t="b">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.010814255331965755]</t>
+          <t>[0.013141757997656999]</t>
         </is>
       </c>
       <c r="F141" t="b">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[0.03744093202661936]</t>
+          <t>[0.034730275159793066]</t>
         </is>
       </c>
       <c r="F142" t="b">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[0.02888252594248058]</t>
+          <t>[0.031716229770863344]</t>
         </is>
       </c>
       <c r="F143" t="b">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[0.06374580323427602]</t>
+          <t>[0.05561882393586665]</t>
         </is>
       </c>
       <c r="F144" t="b">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[0.043373369830675676, 0.037242225753304825]</t>
+          <t>[0.04446478199191568, 0.031383593745730055]</t>
         </is>
       </c>
       <c r="F145" t="b">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[0.06942606639637662]</t>
+          <t>[0.05819618583905322]</t>
         </is>
       </c>
       <c r="F146" t="b">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[0.0614683034796615]</t>
+          <t>[0.05419491557774743]</t>
         </is>
       </c>
       <c r="F147" t="b">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[13, 9]</t>
+          <t>[13, 7]</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5012,14 +5012,14 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[0.06702657838650405, 0.028132012536679296]</t>
+          <t>[0.06825083243765007, 0.023953432310763044]</t>
         </is>
       </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[0.019477331121901385]</t>
+          <t>[0.01905486946496597]</t>
         </is>
       </c>
       <c r="F149" t="b">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[0.04491139691255396]</t>
+          <t>[0.04655570727227314]</t>
         </is>
       </c>
       <c r="F150" t="b">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[0.022727591032002205]</t>
+          <t>[0.021542299832822326]</t>
         </is>
       </c>
       <c r="F151" t="b">
@@ -5136,7 +5136,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[0.18847518821355433]</t>
+          <t>[0.17724929404718937]</t>
         </is>
       </c>
       <c r="F152" t="b">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[0.03165782933832325]</t>
+          <t>[0.026636040033248]</t>
         </is>
       </c>
       <c r="F153" t="b">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[0.04545572418058592]</t>
+          <t>[0.060804062840203225]</t>
         </is>
       </c>
       <c r="F154" t="b">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[0.0276689107109876]</t>
+          <t>[0.028956999900583088]</t>
         </is>
       </c>
       <c r="F155" t="b">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[0.027881015029606736]</t>
+          <t>[0.02903778650408317]</t>
         </is>
       </c>
       <c r="F156" t="b">
@@ -5276,29 +5276,29 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>protected area effective tool reducing biodiversity loss current legislation distinguishes type marine protected area allowing different level resource extraction theory spatial conservation planning focused identifying notake reserve current approach zoning multiple type protected area result suboptimal plan term protecting biodiversity minimizing negative socioeconomic impact overcame limitation application multizone planning tool marxan zone design network type protected area context california marine life protection act produced zoning configuration entail mean value loss fishery compromising conservation goal spatial numerical optimization tool allows multiple zone outperforms tool identify zone marine reserve way overall impact fishing industry reduced second equitable impact different fishing sector achieved finally examined tradeoff representing biodiversity feature impacting fishery approach applicable marine terrestrial conservation planning delivers ecosystembased management outcome balance conservation industry objective</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>[14]</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>protected area effective tool reducing biodiversity loss current legislation distinguishes type marine protected area allowing different level resource extraction theory spatial conservation planning focused identifying notake reserve current approach zoning multiple type protected area result suboptimal plan term protecting biodiversity minimizing negative socioeconomic impact overcame limitation application multizone planning tool marxan zone design network type protected area context california marine life protection act produced zoning configuration entail mean value loss fishery compromising conservation goal spatial numerical optimization tool allows multiple zone outperforms tool identify zone marine reserve way overall impact fishing industry reduced second equitable impact different fishing sector achieved finally examined tradeoff representing biodiversity feature impacting fishery approach applicable marine terrestrial conservation planning delivers ecosystembased management outcome balance conservation industry objective</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>[14]</t>
-        </is>
-      </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[0.09604065767381369]</t>
+          <t>[0.1349617170817047]</t>
         </is>
       </c>
       <c r="F157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[0.0407107363888122]</t>
+          <t>[0.046648500199581104]</t>
         </is>
       </c>
       <c r="F158" t="b">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[0.04617649895773118]</t>
+          <t>[0.05342525266545209]</t>
         </is>
       </c>
       <c r="F159" t="b">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[0.03796788836639916]</t>
+          <t>[0.04476771339314058]</t>
         </is>
       </c>
       <c r="F160" t="b">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[0.09876391070825966]</t>
+          <t>[0.12344694315036071]</t>
         </is>
       </c>
       <c r="F161" t="b">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[0.029764974494070468]</t>
+          <t>[0.03453510542315903]</t>
         </is>
       </c>
       <c r="F162" t="b">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>[0.052578151668986016]</t>
+          <t>[0.052820172924846746]</t>
         </is>
       </c>
       <c r="F163" t="b">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>[0.05955765983101318]</t>
+          <t>[0.05854474161963208]</t>
         </is>
       </c>
       <c r="F164" t="b">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>[0.017557784136226346]</t>
+          <t>[0.013361515549092408]</t>
         </is>
       </c>
       <c r="F165" t="b">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>[0.029792032294228447]</t>
+          <t>[0.03048782449091932]</t>
         </is>
       </c>
       <c r="F166" t="b">

--- a/Project_python/out/results4.xlsx
+++ b/Project_python/out/results4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G166"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.017432467615872395]</t>
+          <t>[0.017167147574460143]</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -517,7 +517,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.044403652986481974]</t>
+          <t>[0.04407867433721106]</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -548,7 +548,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.024536868481554435, 0.015611969252747153]</t>
+          <t>[0.02378132389937578, 0.015911949028721426]</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -579,7 +579,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.04833103438705824]</t>
+          <t>[0.05097212256651604]</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -610,7 +610,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.04932457982596433]</t>
+          <t>[0.049509068785753126]</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -641,7 +641,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.025772738900568224]</t>
+          <t>[0.025609233126860476]</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -672,7 +672,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.05917762990122566]</t>
+          <t>[0.05994185047895234]</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -703,7 +703,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.07702890905447025]</t>
+          <t>[0.07852905469869834]</t>
         </is>
       </c>
       <c r="F9" t="b">
@@ -734,7 +734,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.037373281837366316]</t>
+          <t>[0.038395066093998065]</t>
         </is>
       </c>
       <c r="F10" t="b">
@@ -765,7 +765,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.08214139872170138]</t>
+          <t>[0.08280693972436116]</t>
         </is>
       </c>
       <c r="F11" t="b">
@@ -796,7 +796,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.040706005820995796]</t>
+          <t>[0.04033676642603399]</t>
         </is>
       </c>
       <c r="F12" t="b">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.045565301537595845]</t>
+          <t>[0.04602246562201407]</t>
         </is>
       </c>
       <c r="F13" t="b">
@@ -858,7 +858,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.048014534869808514]</t>
+          <t>[0.045543793601737284]</t>
         </is>
       </c>
       <c r="F14" t="b">
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.015323597332810666, 0.007830188437992823]</t>
+          <t>[0.015927305091725463, 0.007684677382989321]</t>
         </is>
       </c>
       <c r="F15" t="b">
@@ -920,7 +920,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.06992478266892325]</t>
+          <t>[0.07047802676164798]</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -951,7 +951,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.04308191972103614]</t>
+          <t>[0.042907730142492634]</t>
         </is>
       </c>
       <c r="F17" t="b">
@@ -982,7 +982,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.02962054972952076]</t>
+          <t>[0.028646952894696247]</t>
         </is>
       </c>
       <c r="F18" t="b">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.02371407618005735]</t>
+          <t>[0.02396412475898761]</t>
         </is>
       </c>
       <c r="F19" t="b">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.03876793373657218, 0.031187898744569887]</t>
+          <t>[0.03851566815622628, 0.030686699333542303]</t>
         </is>
       </c>
       <c r="F20" t="b">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.012500736368207714]</t>
+          <t>[0.012515853576672007]</t>
         </is>
       </c>
       <c r="F21" t="b">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.017978130719107147]</t>
+          <t>[0.018247465136281008]</t>
         </is>
       </c>
       <c r="F22" t="b">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.03632008938380074]</t>
+          <t>[0.0359972676481291]</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.017584882717591416]</t>
+          <t>[0.01767894845401538]</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.017051619815027445]</t>
+          <t>[0.01682314287234067]</t>
         </is>
       </c>
       <c r="F25" t="b">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.0309614566552367, 0.01932710463698573]</t>
+          <t>[0.030783919731337085, 0.019462149534541232]</t>
         </is>
       </c>
       <c r="F26" t="b">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.02894130451873084, 0.012583833086087228]</t>
+          <t>[0.028782323014133533, 0.012703058352698256]</t>
         </is>
       </c>
       <c r="F27" t="b">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.03772188784325417]</t>
+          <t>[0.037140893351478466]</t>
         </is>
       </c>
       <c r="F28" t="b">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.12383055781358127]</t>
+          <t>[0.1237860651858469]</t>
         </is>
       </c>
       <c r="F29" t="b">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1354,14 +1354,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.012407766384202844]</t>
+          <t>[0.012793521184363896]</t>
         </is>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.023094785434276965, 0.021985413720138118]</t>
+          <t>[0.022878722032911043, 0.021161685173745833]</t>
         </is>
       </c>
       <c r="F31" t="b">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.03799026245323546]</t>
+          <t>[0.03755622671008407]</t>
         </is>
       </c>
       <c r="F32" t="b">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.019176909653237144]</t>
+          <t>[0.018844313060538385]</t>
         </is>
       </c>
       <c r="F33" t="b">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.044391988487854195]</t>
+          <t>[0.045764341068827666]</t>
         </is>
       </c>
       <c r="F34" t="b">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.05735350575610435]</t>
+          <t>[0.05651022970707501]</t>
         </is>
       </c>
       <c r="F35" t="b">
@@ -1525,29 +1525,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>background misuse prescription opioids mupo leading public health concern social playing expanded role public health research method estimating established epidemiological metric social purpose study demonstrate geographic variation social post mentioning prescription opioid misuse strongly correlate government estimate mupo month method wrote software acquire publicly available tweet twitter contained keyword related prescription opioid medical toxicologist emergency physician curated list keywords semantic distance semd automatically quantify similarity meaning tweet identify tweet mentioned mupo defined semd word shortest distance corresponding word centroid word centroid represented recognized meaning word validated automatic identification manual curation twitter metadata estimate location tweet compared estimated geographic distribution national survey drug usage health nsduh result tweet mentioned mupo formed distinct cluster far away semantically unrelated tweet state bystate correlation twitter nsduh highly significant nsduh survey correlation strongest twitter nsduh aged correlation driven discussion opioid controlling geographic variation twitter usage conclusion mention mupo twitter correlate strongly state state nsduh estimate mupo demonstrated natural language processing analyze social provide insight syndromic</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>background misuse prescription opioids mupo leading public health concern social playing expanded role public health research method estimating established epidemiological metric social purpose study demonstrate geographic variation social post mentioning prescription opioid misuse strongly correlate government estimate mupo month method wrote software acquire publicly available tweet twitter contained keyword related prescription opioid medical toxicologist emergency physician curated list keywords semantic distance semd automatically quantify similarity meaning tweet identify tweet mentioned mupo defined semd word shortest distance corresponding word centroid word centroid represented recognized meaning word validated automatic identification manual curation twitter metadata estimate location tweet compared estimated geographic distribution national survey drug usage health nsduh result tweet mentioned mupo formed distinct cluster far away semantically unrelated tweet state bystate correlation twitter nsduh highly significant nsduh survey correlation strongest twitter nsduh aged correlation driven discussion opioid controlling geographic variation twitter usage conclusion mention mupo twitter correlate strongly state state nsduh estimate mupo demonstrated natural language processing analyze social provide insight syndromic</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.02934662774507949]</t>
+          <t>[0.028313991061411872]</t>
         </is>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.0276601655942839]</t>
+          <t>[0.02704170280752225]</t>
         </is>
       </c>
       <c r="F37" t="b">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.016732464004754193]</t>
+          <t>[0.015389738470176467]</t>
         </is>
       </c>
       <c r="F38" t="b">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.030980020677132545]</t>
+          <t>[0.03153997165567374]</t>
         </is>
       </c>
       <c r="F39" t="b">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.017730827140666733]</t>
+          <t>[0.01763930775510362]</t>
         </is>
       </c>
       <c r="F40" t="b">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.030878906810104405]</t>
+          <t>[0.03108213291365953]</t>
         </is>
       </c>
       <c r="F41" t="b">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.029623437339116907]</t>
+          <t>[0.02822366809205636]</t>
         </is>
       </c>
       <c r="F42" t="b">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.04480220132324833]</t>
+          <t>[0.04357922291488435]</t>
         </is>
       </c>
       <c r="F43" t="b">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.022385449036099375]</t>
+          <t>[0.02267744596812373]</t>
         </is>
       </c>
       <c r="F44" t="b">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.012377803764226149]</t>
+          <t>[0.012661673077180644]</t>
         </is>
       </c>
       <c r="F45" t="b">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.022243809897753278, 0.01964642686971334]</t>
+          <t>[0.02215847600346936, 0.0197952296456987]</t>
         </is>
       </c>
       <c r="F46" t="b">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.019670953936590015]</t>
+          <t>[0.01923427630663562]</t>
         </is>
       </c>
       <c r="F47" t="b">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.015117169348878419, 0.011763728177526725]</t>
+          <t>[0.01499394427259222, 0.011778714067541768]</t>
         </is>
       </c>
       <c r="F48" t="b">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.01952576587753562]</t>
+          <t>[0.019371283076701756]</t>
         </is>
       </c>
       <c r="F49" t="b">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.05198212705917045]</t>
+          <t>[0.051435227885658734]</t>
         </is>
       </c>
       <c r="F50" t="b">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.030628624227837287]</t>
+          <t>[0.03178107501839267]</t>
         </is>
       </c>
       <c r="F51" t="b">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.10949024046393108]</t>
+          <t>[0.10834406113501432]</t>
         </is>
       </c>
       <c r="F52" t="b">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.04438651542455275]</t>
+          <t>[0.04345690832390619]</t>
         </is>
       </c>
       <c r="F53" t="b">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.0370854256985697]</t>
+          <t>[0.03670254645321052]</t>
         </is>
       </c>
       <c r="F54" t="b">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.037521272059902265]</t>
+          <t>[0.03726550894132163]</t>
         </is>
       </c>
       <c r="F55" t="b">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.022554075624907053]</t>
+          <t>[0.022235328063212826]</t>
         </is>
       </c>
       <c r="F56" t="b">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.017484006881696032]</t>
+          <t>[0.01785413396128099]</t>
         </is>
       </c>
       <c r="F57" t="b">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.030185192025332507]</t>
+          <t>[0.029901415953031626]</t>
         </is>
       </c>
       <c r="F58" t="b">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.02821476451125166]</t>
+          <t>[0.027930349391654532]</t>
         </is>
       </c>
       <c r="F59" t="b">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.014702574420562648]</t>
+          <t>[0.014626131861250821]</t>
         </is>
       </c>
       <c r="F60" t="b">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.09658286070384246]</t>
+          <t>[0.09598540557562289]</t>
         </is>
       </c>
       <c r="F61" t="b">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.032961232665122256]</t>
+          <t>[0.03386072959999618]</t>
         </is>
       </c>
       <c r="F62" t="b">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[0.026332242043221852]</t>
+          <t>[0.026044689988463137]</t>
         </is>
       </c>
       <c r="F63" t="b">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.03255597927562634]</t>
+          <t>[0.03351921251259209]</t>
         </is>
       </c>
       <c r="F64" t="b">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.05764494502179925]</t>
+          <t>[0.059799503509680094]</t>
         </is>
       </c>
       <c r="F65" t="b">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.017621119048147928]</t>
+          <t>[0.016967150560002198]</t>
         </is>
       </c>
       <c r="F66" t="b">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.03659541327304097]</t>
+          <t>[0.03540007001207492]</t>
         </is>
       </c>
       <c r="F67" t="b">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.09404905795654304]</t>
+          <t>[0.09371159045300344]</t>
         </is>
       </c>
       <c r="F68" t="b">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.04058786196749706]</t>
+          <t>[0.03951743724534062]</t>
         </is>
       </c>
       <c r="F69" t="b">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.08441489805392428]</t>
+          <t>[0.08406571362422634]</t>
         </is>
       </c>
       <c r="F70" t="b">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.03880385956173158, 0.01986489083894662]</t>
+          <t>[0.03851563154292997, 0.020230027780929572]</t>
         </is>
       </c>
       <c r="F71" t="b">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.16510579343980775]</t>
+          <t>[0.1594621589340846]</t>
         </is>
       </c>
       <c r="F72" t="b">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.01881610073201019]</t>
+          <t>[0.019308937820876983]</t>
         </is>
       </c>
       <c r="F73" t="b">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.021146521631351004]</t>
+          <t>[0.020898402048635866]</t>
         </is>
       </c>
       <c r="F74" t="b">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.04635685053197555, 0.0181426351237796]</t>
+          <t>[0.04615391602825993, 0.018386503893189663]</t>
         </is>
       </c>
       <c r="F75" t="b">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.020854138931078008]</t>
+          <t>[0.020522850358605026]</t>
         </is>
       </c>
       <c r="F76" t="b">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.048612828020562424, 0.022321241697399595]</t>
+          <t>[0.048316321057922586, 0.02224568244418411]</t>
         </is>
       </c>
       <c r="F77" t="b">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.012797368958357487]</t>
+          <t>[0.012753381441756967]</t>
         </is>
       </c>
       <c r="F78" t="b">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.04686424172515893]</t>
+          <t>[0.04533312221379474]</t>
         </is>
       </c>
       <c r="F79" t="b">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.04339757490094997]</t>
+          <t>[0.041642950299424775]</t>
         </is>
       </c>
       <c r="F80" t="b">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.10706345118749275, 0.01769401646453737]</t>
+          <t>[0.1056925297472458, 0.01727042400313849]</t>
         </is>
       </c>
       <c r="F81" t="b">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.14030418908329478, 0.03215802437884054]</t>
+          <t>[0.13582133258857226, 0.03198849944182529]</t>
         </is>
       </c>
       <c r="F82" t="b">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.03208145317034763, 0.017905031648795755]</t>
+          <t>[0.031989723424299656, 0.017879063402842163]</t>
         </is>
       </c>
       <c r="F83" t="b">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.032694261021337434, 0.018308401127786204]</t>
+          <t>[0.032473226880016456, 0.018162555209260557]</t>
         </is>
       </c>
       <c r="F84" t="b">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.028895844084202597]</t>
+          <t>[0.029379252368589105]</t>
         </is>
       </c>
       <c r="F85" t="b">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.0188709140657014]</t>
+          <t>[0.01939801035662378]</t>
         </is>
       </c>
       <c r="F86" t="b">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.021825760289900187]</t>
+          <t>[0.02238900149091928]</t>
         </is>
       </c>
       <c r="F87" t="b">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.09864197744635671]</t>
+          <t>[0.09739436237011541]</t>
         </is>
       </c>
       <c r="F88" t="b">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.02129701153948667]</t>
+          <t>[0.0214516464634788]</t>
         </is>
       </c>
       <c r="F89" t="b">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.04600140856667701]</t>
+          <t>[0.045673619750865264]</t>
         </is>
       </c>
       <c r="F90" t="b">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.16849656838348867]</t>
+          <t>[0.16652443736710332]</t>
         </is>
       </c>
       <c r="F91" t="b">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.011323338188345317]</t>
+          <t>[0.011670693152158159]</t>
         </is>
       </c>
       <c r="F92" t="b">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.018802045231517676]</t>
+          <t>[0.01906722069623511]</t>
         </is>
       </c>
       <c r="F93" t="b">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.05466651223522335]</t>
+          <t>[0.05459663200086445]</t>
         </is>
       </c>
       <c r="F94" t="b">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.031845023844991896]</t>
+          <t>[0.030970951513246]</t>
         </is>
       </c>
       <c r="F95" t="b">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.05198533918502164]</t>
+          <t>[0.050442338904291485]</t>
         </is>
       </c>
       <c r="F96" t="b">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.1778951004284803]</t>
+          <t>[0.1766320415494069]</t>
         </is>
       </c>
       <c r="F97" t="b">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.017638119909590785]</t>
+          <t>[0.01785681103799535]</t>
         </is>
       </c>
       <c r="F98" t="b">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.02049733697958011]</t>
+          <t>[0.019905702990983522]</t>
         </is>
       </c>
       <c r="F99" t="b">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[0.022976748227021143]</t>
+          <t>[0.022849364530133164]</t>
         </is>
       </c>
       <c r="F100" t="b">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.1679835725973545]</t>
+          <t>[0.16477726484832328]</t>
         </is>
       </c>
       <c r="F101" t="b">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.14731334615631708]</t>
+          <t>[0.15015636251298317]</t>
         </is>
       </c>
       <c r="F102" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.013679479562859287]</t>
+          <t>[0.013507827495215972]</t>
         </is>
       </c>
       <c r="F103" t="b">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.0701709149255768]</t>
+          <t>[0.06955310442841285]</t>
         </is>
       </c>
       <c r="F104" t="b">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.054690816067750544]</t>
+          <t>[0.054098942576352636]</t>
         </is>
       </c>
       <c r="F105" t="b">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.08263766949414293]</t>
+          <t>[0.08192608222312255]</t>
         </is>
       </c>
       <c r="F106" t="b">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.02014786534439492]</t>
+          <t>[0.0202335865618623]</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.08149224467038735]</t>
+          <t>[0.07870681541213392]</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.0912149768994564]</t>
+          <t>[0.09040479621575893]</t>
         </is>
       </c>
       <c r="F109" t="b">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.07204662485197337]</t>
+          <t>[0.07105644100729892]</t>
         </is>
       </c>
       <c r="F110" t="b">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.05683714699367397]</t>
+          <t>[0.05643927572553444]</t>
         </is>
       </c>
       <c r="F111" t="b">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.05499771678086548]</t>
+          <t>[0.054501734703851855]</t>
         </is>
       </c>
       <c r="F112" t="b">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[0.01950586998049851]</t>
+          <t>[0.01942490247399165]</t>
         </is>
       </c>
       <c r="F113" t="b">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.10205348351845793]</t>
+          <t>[0.10123461762376337]</t>
         </is>
       </c>
       <c r="F114" t="b">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.13272651151150994]</t>
+          <t>[0.13180194223949257]</t>
         </is>
       </c>
       <c r="F115" t="b">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.1914941921380233]</t>
+          <t>[0.19047027339091072]</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.07614146198737799]</t>
+          <t>[0.07570195936266308]</t>
         </is>
       </c>
       <c r="F117" t="b">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.03620704464483753]</t>
+          <t>[0.035914709042292055]</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.10224662584911806]</t>
+          <t>[0.10178153618120354]</t>
         </is>
       </c>
       <c r="F119" t="b">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.07416477606674783]</t>
+          <t>[0.07368030452216963]</t>
         </is>
       </c>
       <c r="F120" t="b">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.01705592513300936]</t>
+          <t>[0.017200901549211188]</t>
         </is>
       </c>
       <c r="F121" t="b">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.015068961546304684]</t>
+          <t>[0.015330624847497198]</t>
         </is>
       </c>
       <c r="F122" t="b">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.026201749756025152]</t>
+          <t>[0.027089579047932744]</t>
         </is>
       </c>
       <c r="F123" t="b">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.031319007868463825]</t>
+          <t>[0.03247985401877819]</t>
         </is>
       </c>
       <c r="F124" t="b">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.013805884991616122]</t>
+          <t>[0.014120666335964507]</t>
         </is>
       </c>
       <c r="F125" t="b">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.018462242637977265]</t>
+          <t>[0.018247068499419306]</t>
         </is>
       </c>
       <c r="F126" t="b">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.029418846192570496]</t>
+          <t>[0.02895902223654572]</t>
         </is>
       </c>
       <c r="F127" t="b">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.05904190506083551]</t>
+          <t>[0.057181465572725076]</t>
         </is>
       </c>
       <c r="F128" t="b">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.011509996216495556]</t>
+          <t>[0.011077525011079845]</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.06357570449739082]</t>
+          <t>[0.060047229720365976]</t>
         </is>
       </c>
       <c r="F130" t="b">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.058142459744791805]</t>
+          <t>[0.055331614447465476]</t>
         </is>
       </c>
       <c r="F131" t="b">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.056422057759577794]</t>
+          <t>[0.05769146153343278]</t>
         </is>
       </c>
       <c r="F132" t="b">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.018997390163875215]</t>
+          <t>[0.01881835648018558]</t>
         </is>
       </c>
       <c r="F133" t="b">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.029186057207649614]</t>
+          <t>[0.031472425054908125]</t>
         </is>
       </c>
       <c r="F134" t="b">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.03388656621707643]</t>
+          <t>[0.0351030941746567]</t>
         </is>
       </c>
       <c r="F135" t="b">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.02529416260467885, 0.013798905863067697]</t>
+          <t>[0.02528890734245676, 0.013262929429320013]</t>
         </is>
       </c>
       <c r="F136" t="b">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.06052226969484571]</t>
+          <t>[0.06157183165587215]</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.08254326675001954]</t>
+          <t>[0.08183992138777398]</t>
         </is>
       </c>
       <c r="F138" t="b">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.03205765645658193]</t>
+          <t>[0.034803571226932645]</t>
         </is>
       </c>
       <c r="F139" t="b">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.10880704079452413]</t>
+          <t>[0.10492764382301938]</t>
         </is>
       </c>
       <c r="F140" t="b">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.013141757997656999]</t>
+          <t>[0.012874878769974165]</t>
         </is>
       </c>
       <c r="F141" t="b">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[0.034730275159793066]</t>
+          <t>[0.03428665293939159]</t>
         </is>
       </c>
       <c r="F142" t="b">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[0.031716229770863344]</t>
+          <t>[0.031342139672995574]</t>
         </is>
       </c>
       <c r="F143" t="b">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[0.05561882393586665]</t>
+          <t>[0.05522935192322126]</t>
         </is>
       </c>
       <c r="F144" t="b">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[0.04446478199191568, 0.031383593745730055]</t>
+          <t>[0.045657335341264496, 0.03155145100608505]</t>
         </is>
       </c>
       <c r="F145" t="b">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[0.05819618583905322]</t>
+          <t>[0.05793832798198321]</t>
         </is>
       </c>
       <c r="F146" t="b">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[0.05419491557774743]</t>
+          <t>[0.05370417551647101]</t>
         </is>
       </c>
       <c r="F147" t="b">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[0.06825083243765007, 0.023953432310763044]</t>
+          <t>[0.06937702741682432, 0.02303166904060769]</t>
         </is>
       </c>
       <c r="F148" t="b">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[0.01905486946496597]</t>
+          <t>[0.0195103018603216]</t>
         </is>
       </c>
       <c r="F149" t="b">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[0.04655570727227314]</t>
+          <t>[0.047419626033069213]</t>
         </is>
       </c>
       <c r="F150" t="b">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[0.021542299832822326]</t>
+          <t>[0.02162978886189242]</t>
         </is>
       </c>
       <c r="F151" t="b">
@@ -5136,7 +5136,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[0.17724929404718937]</t>
+          <t>[0.17497856075000992]</t>
         </is>
       </c>
       <c r="F152" t="b">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[0.026636040033248]</t>
+          <t>[0.025740844614585656]</t>
         </is>
       </c>
       <c r="F153" t="b">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[0.060804062840203225]</t>
+          <t>[0.06035400943331025]</t>
         </is>
       </c>
       <c r="F154" t="b">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[0.028956999900583088]</t>
+          <t>[0.028949499627189287]</t>
         </is>
       </c>
       <c r="F155" t="b">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[0.02903778650408317]</t>
+          <t>[0.028978586774628192]</t>
         </is>
       </c>
       <c r="F156" t="b">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[0.1349617170817047]</t>
+          <t>[0.13378925137226583]</t>
         </is>
       </c>
       <c r="F157" t="b">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[0.046648500199581104]</t>
+          <t>[0.04615749092338919]</t>
         </is>
       </c>
       <c r="F158" t="b">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[0.05342525266545209]</t>
+          <t>[0.05298206268937812]</t>
         </is>
       </c>
       <c r="F159" t="b">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[0.04476771339314058]</t>
+          <t>[0.04428784015310602]</t>
         </is>
       </c>
       <c r="F160" t="b">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[0.12344694315036071]</t>
+          <t>[0.12245368075183752]</t>
         </is>
       </c>
       <c r="F161" t="b">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[0.03453510542315903]</t>
+          <t>[0.0343084543012875]</t>
         </is>
       </c>
       <c r="F162" t="b">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>[0.052820172924846746]</t>
+          <t>[0.05279683340667952]</t>
         </is>
       </c>
       <c r="F163" t="b">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>[0.05854474161963208]</t>
+          <t>[0.05802416477496841]</t>
         </is>
       </c>
       <c r="F164" t="b">
@@ -5539,44 +5539,13 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>[0.013361515549092408]</t>
+          <t>[0.013596562686181665]</t>
         </is>
       </c>
       <c r="F165" t="b">
         <v>0</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>[16]</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>rtificial intelligence application profoundly impact society low middleincome country lmics positively negatively emerging class technology technology application built fuelled increasing availability computational power improved connectivity application offer intriguing possibility promoting economic growth tackling wide variety longstanding problem global south resulting disruptive impact massive revolutionary photo annie spratt unsplash artificial intelligence human development executive summary time care vigilance required mitigate risk identify respond unintended harmful consequence approach critical exacerbate inequality social instability paper proposes proactive research agenda ethical equitable application global south undergirding agenda broad overview technology associated opportunity challenge present area science devoted developing taught learn decision prediction specific context application perform wide range intelligent behaviour optimization supply chain pattern recognition detection facial recognition prediction hypothesis testing predicting disease outbreak natural language processing machine translation technology poised significant impact society leverage existing infrastructure internet large datasets dramatically reduce cost activity new old good bad large scale potential benefit developing country health care play crucial role augmenting health care capacity filling gap human expertise improving productivity enhancing disease surveillance example ngo brazil partnered startup develop predict upcoming incidence disease delivery government service information group world exploring way help country improve egovernment effort automating complex assessment account range technical organizational social factor example machine learning developed help predict mass grave location mexican drug cartel victim agriculture employed address threat compromise successful harvest example support water management palestine drought monitoring uganda education educational offering industrial onesizefits delivery model quality personalized learning opportunity scale example effort india employing develop intelligent tutoring economy business offer potential higher productivity offer mean growth new business development innovation optimization economic building block example company working extend access standard financial service african currently access potential risk fairness bias accountability potential reflect exacerbate societal bias produce result disadvantage individual group especially marginalized example program ass risk reoffense individual criminal justice flagged black defendant risk nearly twice white defendant surveillance loss privacy algorithm supercharge surveillance threaten privacy example aipowered facial recognition software closedcircuit capacity track individual urban landscape concerning socially politically privacy fundamental right freedom expression association job tax revenue loss automation growing machine learning nearly sector economy widespread automation extend manufacturing impact higherskilled knowledgebased role job partly entirely automated reducing need human worker counterargument shift nature scope work job instance robot complementing human labour focus higherskilled higherpaid task executive summary undermining democracy political world increasingly connected reliant free flow information misinformation genuine growing threat stability democracy example piggybacking highly personal collected social campaign application facilitate efficient propaganda behavioural manipulation campaign presidential election notorious example role targeted misinformation facebook future global south little doubt technology breathtaking advance extraordinary wealth created social institutional structure transformed ask life improved harmed technology assertion paper continue blindly forward expect inequality alongside economic disruption social unrest political instability technologically disadvantaged faring worst prediction stem interweaving element nature application projection impact application current global context worrisome dynamic current set institution culture shape evolution technology turn technology shape institution culture important element context characterized called divide gap ability design deploy application furthermore digital infrastructure analogue regulation foundation required ethical equitable application technology country global south largely absent salient power asymmetry persist situation important address challenge posed avoid mitigate adverse outcome enabling developing country advantage ai positive potential promise alluring potential great avoid future question ready recommendation based conclusion paper broader literature identified area action taken policy regulation inclusive ethical application infrastructure skill area paper series recommendation research necessary concrete progress note intended comprehensive list overview pressing intervention policy regulatory structure foster design policy regulation enable inclusive rightsbased conduct baseline research prevalence application policy country global south despite pocket activity global south systematic overview level activity baseline collection include set policy regulation application existing open datasets skill level research conducted annual minimally biannual basis support continued activity policy development research agenda learn effective regulatory model document ass regulatory model developed deal emergence new aidriven activity predictive policing autonomous vehicle chatbots determine potential risk application adequately addressed existing regulation existing regulation need adapted new regulation developed identify regulatory response given risk level appropriate setting low institutional capacity lesson learned global north useful critical directly import institutional regulatory approach global south context institutional cultural differ track impact employment work conduct social economic policy research understand effect employment nature work labour market extent aienabled automation altering employment pattern transforming workplace alternative model income resource distribution education job retraining different context executive summary explore approach addressing liability accountability redress decisionmaking design regulatory framework determine liability accountability decisionmaking erroneous biased discriminatory establish mechanism redress measure include policy stipulate transparency automated decisionmaking evaluative procedure determine competency certification engage task requiring degree skill training need action particularly urgent decisionmaking affect wellbeing freedom involve force incarceration research critical uncover document accountability redress effective context study impact human right broad level recognizes offline right apply online testifying relevance analog right digitally mediated environment professional body specifically consideration human right context design operation tailoring impact assessment risk help encourage development program incorporate technology way respect promote human right including privacy equality freedom expression application catalyze development inclusive ethical application support development deployment innovative application social good invest developing deploying application education health environment food security ensure application ethical inclusive regulatory innovation important draw inspiration example world application require homegrown solution effective research social impact innovation research needed better understand application work work context need know benefit application excluded harmed special emphasis placed exploring differential impact group particularly resulting gender social economic status race research firstorder effect efficiency accuracy diagnosis include broader social effect new methodology impact assessment evaluation required test monitor bias application inform decisionmaking affect human wellbeing medical diagnosis providing judge assessment potential recidivism tested monitored bias error different context community release continuously explore model participatory design conduct research practice support development inclusive application technique effective truly participatory process engage diverse population design deployment application context practice counter design learned bias relevant marginalized community stakeholder field release diversity participation design development action research deepen understanding effectively equitably scale proven application research process scaling application costeffective equitable manner vertically encompass additional functionality horizontally expand new location critical extending benefit application successful transfer application context requires understanding application worked particular context appreciation application need altered order succeed new environment particular challenge related include scaling scope existing datasets developing mean rapidly generate datasets executive summary infrastructure skill build infrastructure skill inclusive ethical support program build expertise government promote expertise branch level government including regulatory policymaking enforcement entity potentially new advisory body foster local capacity lead design development deployment application activity include supporting growth centre excellence global south order engage local development research provide evidencebased input shaping national policy regulatory decision building bridge technology expert lowincome marginalized community global south supporting southsouth collaboration develop test costeffective approach build relevant skill particularly woman marginalized population develop support program focus developing capacity woman marginalized population engage different stage design application technology research bolster activity exploration lowcost model developing technology skill producing testing effective curriculum pedagogy expand access computing resource possible research tool training datasets need freely available support development sharing diverse inclusive datasets necessary application context study benefit risk open conduct research short mediumterm risk benefit openness sharing resource datasets possible research connect supplyside question best provide open access algorithm tool datasets deepening understanding engagement necessary ensure open resource available reuse adaptation diverse population wellskilled wellresourced special attention paid issue balancing sharing datasets safeguarding privacy</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>[17]</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>[0.03048782449091932]</t>
-        </is>
-      </c>
-      <c r="F166" t="b">
-        <v>0</v>
-      </c>
-      <c r="G166" t="b">
         <v>0</v>
       </c>
     </row>
